--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail14 Features.xlsx
@@ -7667,7 +7667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7678,29 +7678,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7721,115 +7719,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -7846,72 +7834,66 @@
         <v>2.852022529957701e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.67384394571395</v>
+        <v>2.01068738087369e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.21295825448041</v>
+        <v>6.162049540082627e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.01068738087369e-07</v>
+        <v>0.1001407435273746</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.162049540082627e-07</v>
+        <v>0.3594948514416074</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1001407435273746</v>
+        <v>0.1389265610409596</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3594948514416074</v>
+        <v>1.940914596357698</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1389265610409596</v>
+        <v>4.143429468248821</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.968613549598688</v>
+        <v>6.792028178718169</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>4.143429468248821</v>
+        <v>3.338455626670491e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.792028178718169</v>
+        <v>136212659101.6715</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.338455626670491e-19</v>
+        <v>8.891295161365997e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>136212659101.6715</v>
+        <v>6194.133345793354</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.891295161365997e-10</v>
+        <v>4.417302080870757e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6194.133345793354</v>
+        <v>10.81996795024845</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>4.417302080870757e-06</v>
+        <v>1.315672797575223</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.81996795024845</v>
+        <v>0.0005171410924879541</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.315672797575223</v>
+        <v>8.721374096560368</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0005171410924879541</v>
+        <v>0.9559310153593547</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.721374096560368</v>
+        <v>0.6333790698044985</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9559310153593547</v>
+        <v>419</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6333790698044985</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>419</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>20.69457578892843</v>
       </c>
     </row>
@@ -7926,72 +7908,66 @@
         <v>2.051744079400282e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.225243951392968</v>
+        <v>1.446790343061874e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>12.88518339840923</v>
+        <v>6.185593251652577e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.446790343061874e-07</v>
+        <v>0.09306443350595212</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.185593251652577e-07</v>
+        <v>0.364943931466556</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09306443350595212</v>
+        <v>0.141492567719872</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.364943931466556</v>
+        <v>1.937654320182034</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.141492567719872</v>
+        <v>4.029729216238733</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.966064613672958</v>
+        <v>6.737112364300383</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.029729216238733</v>
+        <v>3.393102543440045e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.737112364300383</v>
+        <v>130733631902.9356</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.393102543440045e-19</v>
+        <v>9.242816304868811e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>130733631902.9356</v>
+        <v>5799.24741571394</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.242816304868811e-10</v>
+        <v>3.624994591464878e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5799.24741571394</v>
+        <v>10.0214269138312</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>3.624994591464878e-06</v>
+        <v>1.436333012994888</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.0214269138312</v>
+        <v>0.0003640545723623087</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.436333012994888</v>
+        <v>8.748841055208608</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0003640545723623087</v>
+        <v>0.9556139641759043</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.748841055208608</v>
+        <v>0.6665873975405618</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9556139641759043</v>
+        <v>371</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6665873975405618</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>371</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>21.1270240976153</v>
       </c>
     </row>
@@ -8006,72 +7982,66 @@
         <v>1.524154056708814e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.388790586187873</v>
+        <v>1.037065416908224e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>8.3330834399084</v>
+        <v>6.201041526010331e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.037065416908224e-07</v>
+        <v>0.08015307009274364</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.201041526010331e-07</v>
+        <v>0.3589601475882328</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08015307009274364</v>
+        <v>0.1349397839971713</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3589601475882328</v>
+        <v>1.936612690606322</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1349397839971713</v>
+        <v>3.726168152113993</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.967704726165358</v>
+        <v>6.947812443866548</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.726168152113993</v>
+        <v>3.190423928604195e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>6.947812443866548</v>
+        <v>139214424225.1562</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.190423928604195e-19</v>
+        <v>8.664457301501501e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>139214424225.1562</v>
+        <v>6183.250837477951</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.664457301501501e-10</v>
+        <v>4.293360939019684e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6183.250837477951</v>
+        <v>10.00664118680376</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4.293360939019684e-06</v>
+        <v>1.478841054917349</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.00664118680376</v>
+        <v>0.0004299065435024473</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.478841054917349</v>
+        <v>8.664423283734529</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0004299065435024473</v>
+        <v>0.9557694897723343</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.664423283734529</v>
+        <v>0.6992600336196523</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9557694897723343</v>
+        <v>348</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6992600336196523</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>348</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>21.00401532353636</v>
       </c>
     </row>
@@ -8086,72 +8056,66 @@
         <v>1.211131477598272e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.332253890705071</v>
+        <v>7.396858358702551e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.851669604075257</v>
+        <v>6.210607802269651e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.396858358702551e-08</v>
+        <v>0.05959714836777556</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.210607802269651e-07</v>
+        <v>0.3302928753822472</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05959714836777556</v>
+        <v>0.1123644483566461</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3302928753822472</v>
+        <v>1.936519702479116</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1123644483566461</v>
+        <v>3.988231604991615</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.967830320345745</v>
+        <v>7.176783623543649</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.988231604991615</v>
+        <v>2.990094133406429e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.176783623543649</v>
+        <v>148978657979.8966</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.990094133406429e-19</v>
+        <v>8.11935039302907e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>148978657979.8966</v>
+        <v>6636.4064452256</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.11935039302907e-10</v>
+        <v>6.24768859017611e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6636.4064452256</v>
+        <v>9.550758107296687</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>6.24768859017611e-06</v>
+        <v>1.626437448409125</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.550758107296687</v>
+        <v>0.0005698952878259259</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.626437448409125</v>
+        <v>8.499657982302104</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0005698952878259259</v>
+        <v>0.956311335764839</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.499657982302104</v>
+        <v>0.7263035631567937</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.956311335764839</v>
+        <v>345</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7263035631567937</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>345</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>19.72363275530383</v>
       </c>
     </row>
@@ -8166,72 +8130,66 @@
         <v>1.057818401384833e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.5897226256306192</v>
+        <v>5.245799368551023e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4310864952019076</v>
+        <v>6.215904608140462e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.245799368551023e-08</v>
+        <v>0.03400272909428383</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.215904608140462e-07</v>
+        <v>0.2771460696879307</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03400272909428383</v>
+        <v>0.0777742220448472</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2771460696879307</v>
+        <v>1.930177520368326</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0777742220448472</v>
+        <v>4.355794580570486</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.965727467466418</v>
+        <v>7.238522387645445</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>4.355794580570486</v>
+        <v>2.939305466396606e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>7.238522387645445</v>
+        <v>148878015039.6259</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.939305466396606e-19</v>
+        <v>8.119117307965515e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>148878015039.6259</v>
+        <v>6514.871618117592</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.119117307965515e-10</v>
+        <v>9.394717454040561e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6514.871618117592</v>
+        <v>8.876377919289578</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>9.394717454040561e-06</v>
+        <v>1.711389771241112</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.876377919289578</v>
+        <v>0.0007402105864359036</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.711389771241112</v>
+        <v>8.235079550935195</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0007402105864359036</v>
+        <v>0.9561844619780374</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.235079550935195</v>
+        <v>0.7481964916452768</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9561844619780374</v>
+        <v>315</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.7481964916452768</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>17.51620107362425</v>
       </c>
     </row>
@@ -8246,72 +8204,66 @@
         <v>1.005875316591006e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.357267364760755</v>
+        <v>3.695065134108709e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.196954477371826</v>
+        <v>6.218110534503136e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.695065134108709e-08</v>
+        <v>0.009696810293254404</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.218110534503136e-07</v>
+        <v>0.2146383057939823</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.009696810293254404</v>
+        <v>0.04605345821429823</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2146383057939823</v>
+        <v>1.931440430391118</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04605345821429823</v>
+        <v>3.914341316928756</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.964317033474591</v>
+        <v>8.115522961619243</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.914341316928756</v>
+        <v>3.174795299582349e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.115522961619243</v>
+        <v>139153674314.3084</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.174795299582349e-19</v>
+        <v>8.676802749376461e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>139153674314.3084</v>
+        <v>6147.592684696891</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.676802749376461e-10</v>
+        <v>1.455366121086613e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6147.592684696891</v>
+        <v>8.380763145764952</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1.455366121086613e-05</v>
+        <v>1.532717528061213</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.380763145764952</v>
+        <v>0.001022208280840295</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.532717528061213</v>
+        <v>7.855924223141093</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.001022208280840295</v>
+        <v>0.9572228979531318</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.855924223141093</v>
+        <v>0.7597248442242306</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9572228979531318</v>
+        <v>315</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.7597248442242306</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>15.07880527597519</v>
       </c>
     </row>
@@ -8326,72 +8278,66 @@
         <v>1.005405555948302e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.3503301296682856</v>
+        <v>3.133881027242473e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.219420357092692</v>
+        <v>6.218080350794531e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.133881027242473e-08</v>
+        <v>-0.009126805083297874</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.218080350794531e-07</v>
+        <v>0.159289849289823</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.009126805083297874</v>
+        <v>0.02539993907959841</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.159289849289823</v>
+        <v>1.928590480951738</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02539993907959841</v>
+        <v>3.887113415103287</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.961663010903399</v>
+        <v>8.352198362391658</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.887113415103287</v>
+        <v>2.997416889200456e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8.352198362391658</v>
+        <v>142124717689.5122</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.997416889200456e-19</v>
+        <v>8.478158941864066e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>142124717689.5122</v>
+        <v>6054.612875530022</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.478158941864066e-10</v>
+        <v>1.831356150882591e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>6054.612875530022</v>
+        <v>9.652868837674546</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1.831356150882591e-05</v>
+        <v>1.261023355218293</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.652868837674546</v>
+        <v>0.001706418777990041</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.261023355218293</v>
+        <v>7.562909181196363</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.001706418777990041</v>
+        <v>0.9580567215018559</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>7.562909181196363</v>
+        <v>0.7760767988764328</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9580567215018559</v>
+        <v>293</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.7760767988764328</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>293</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>13.99375514367456</v>
       </c>
     </row>
@@ -8406,72 +8352,66 @@
         <v>1.024703945885823e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.3544846965664727</v>
+        <v>3.146547350171915e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.247327483578561</v>
+        <v>6.216445198449919e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.146547350171915e-08</v>
+        <v>-0.02208998775177157</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.216445198449919e-07</v>
+        <v>0.1178494501265449</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02208998775177157</v>
+        <v>0.01434924144273307</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1178494501265449</v>
+        <v>1.930104530295588</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01434924144273307</v>
+        <v>3.659194946997104</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.963516873057376</v>
+        <v>8.478585193384761</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.659194946997104</v>
+        <v>3.100480024467954e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.478585193384761</v>
+        <v>142123591432.9912</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.100480024467954e-19</v>
+        <v>8.494164870015022e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>142123591432.9912</v>
+        <v>6262.695331916369</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.494164870015022e-10</v>
+        <v>2.284844734727462e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>6262.695331916369</v>
+        <v>10.69652596527617</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>2.284844734727462e-05</v>
+        <v>1.253851117497428</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.69652596527617</v>
+        <v>0.002614220359736834</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.253851117497428</v>
+        <v>7.345128656482784</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.002614220359736834</v>
+        <v>0.9587657233730781</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>7.345128656482784</v>
+        <v>0.8032998357444435</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9587657233730781</v>
+        <v>265</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.8032998357444435</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>265</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>13.35570749171909</v>
       </c>
     </row>
@@ -8486,72 +8426,66 @@
         <v>1.047846492071512e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.3258072795352729</v>
+        <v>3.152782046449428e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.315122835147736</v>
+        <v>6.213677194197874e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.152782046449428e-08</v>
+        <v>-0.0306260824682572</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.213677194197874e-07</v>
+        <v>0.08934307337910405</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.0306260824682572</v>
+        <v>0.00890725736730528</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08934307337910405</v>
+        <v>1.932301543333738</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.00890725736730528</v>
+        <v>3.79991608006027</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.962020189441383</v>
+        <v>8.383508833938322</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.79991608006027</v>
+        <v>3.171203132092165e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.383508833938322</v>
+        <v>141343310050.6886</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.171203132092165e-19</v>
+        <v>8.563065457438095e-10</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>141343310050.6886</v>
+        <v>6335.407829886714</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>8.563065457438095e-10</v>
+        <v>2.513505234933743e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>6335.407829886714</v>
+        <v>9.780182304215916</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>2.513505234933743e-05</v>
+        <v>1.4064809532131</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.780182304215916</v>
+        <v>0.002404217170306492</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.4064809532131</v>
+        <v>7.278571433946379</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.002404217170306492</v>
+        <v>0.9584591791164369</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>7.278571433946379</v>
+        <v>0.8114042084450729</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9584591791164369</v>
+        <v>284</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.8114042084450729</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>284</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>12.72449309916407</v>
       </c>
     </row>
@@ -8566,72 +8500,66 @@
         <v>1.068223774220797e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.275409168545007</v>
+        <v>3.157017209652952e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.378467378974508</v>
+        <v>6.210107550693343e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.157017209652952e-08</v>
+        <v>-0.03645876183134478</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.210107550693343e-07</v>
+        <v>0.06942003035747403</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03645876183134478</v>
+        <v>0.00614134241144416</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06942003035747403</v>
+        <v>1.929468391238468</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00614134241144416</v>
+        <v>3.810606955978454</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.96079523764563</v>
+        <v>7.70338616539386</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.810606955978454</v>
+        <v>3.755885773735294e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>7.70338616539386</v>
+        <v>115852573826.2886</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.755885773735294e-19</v>
+        <v>1.042442073733545e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>115852573826.2886</v>
+        <v>5041.081852209755</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.042442073733545e-09</v>
+        <v>2.116957815437346e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>5041.081852209755</v>
+        <v>7.08298421645322</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>2.116957815437346e-05</v>
+        <v>1.71235193165836</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.08298421645322</v>
+        <v>0.001062049483308731</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.71235193165836</v>
+        <v>7.394462943338252</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.001062049483308731</v>
+        <v>0.9575224715365419</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>7.394462943338252</v>
+        <v>0.8274598374744917</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9575224715365419</v>
+        <v>277</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8274598374744917</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>277</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>12.4191931128331</v>
       </c>
     </row>
@@ -8646,72 +8574,66 @@
         <v>1.083485522905591e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.2170498178693384</v>
+        <v>3.171484899351027e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.422962869056078</v>
+        <v>6.205930871776931e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.171484899351027e-08</v>
+        <v>-0.04090124709854752</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.205930871776931e-07</v>
+        <v>0.05432841395544481</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04090124709854752</v>
+        <v>0.004620901347755345</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.05432841395544481</v>
+        <v>1.930301933205732</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004620901347755345</v>
+        <v>3.597291905254359</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.963649297621131</v>
+        <v>6.215594330494067</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.597291905254359</v>
+        <v>6.484565410917792e-19</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6.215594330494067</v>
+        <v>67140022586.8684</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.484565410917792e-19</v>
+        <v>1.80081167671961e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>67140022586.8684</v>
+        <v>2923.101134166206</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.80081167671961e-09</v>
+        <v>2.482159772030598e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2923.101134166206</v>
+        <v>6.638413219795419</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2.482159772030598e-05</v>
+        <v>1.48633680598917</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>6.638413219795419</v>
+        <v>0.001093851325690407</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.48633680598917</v>
+        <v>7.223515736445805</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.001093851325690407</v>
+        <v>0.9573260130532493</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>7.223515736445805</v>
+        <v>0.9071366810476296</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9573260130532493</v>
+        <v>263</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9071366810476296</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>263</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>11.57588363195823</v>
       </c>
     </row>
@@ -8726,72 +8648,66 @@
         <v>1.093280605866159e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1598554920953685</v>
+        <v>3.198616491353876e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.450887106707196</v>
+        <v>6.201280534052056e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.198616491353876e-08</v>
+        <v>-0.04430578369512959</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.201280534052056e-07</v>
+        <v>0.04364165523768259</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04430578369512959</v>
+        <v>0.003866078679608072</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04364165523768259</v>
+        <v>1.934693443941025</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003866078679608072</v>
+        <v>3.101771078809322</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.963231206108748</v>
+        <v>5.892192939666199</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.101771078809322</v>
+        <v>7.215929482880522e-19</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.892192939666199</v>
+        <v>59626579376.13719</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>7.215929482880522e-19</v>
+        <v>2.026660877243438e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>59626579376.13719</v>
+        <v>2565.500312224323</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.026660877243438e-09</v>
+        <v>4.609217007515337e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2565.500312224323</v>
+        <v>8.511820834216905</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>4.609217007515337e-05</v>
+        <v>1.260620395840186</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.511820834216905</v>
+        <v>0.003339428142806193</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.260620395840186</v>
+        <v>6.408208516397197</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.003339428142806193</v>
+        <v>0.9583746651194092</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>6.408208516397197</v>
+        <v>0.8775160196620331</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9583746651194092</v>
+        <v>267</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.8775160196620331</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>267</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>8.920995971095561</v>
       </c>
     </row>
@@ -8806,72 +8722,66 @@
         <v>1.098114764965839e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.108056517419807</v>
+        <v>3.229185886136686e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.469411455785153</v>
+        <v>6.19628037165618e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.229185886136686e-08</v>
+        <v>-0.04676972480928322</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.19628037165618e-07</v>
+        <v>0.03694916556164098</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04676972480928322</v>
+        <v>0.003552182411567733</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.03694916556164098</v>
+        <v>1.934409255971602</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003552182411567733</v>
+        <v>3.396642631468291</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.961173692445986</v>
+        <v>5.972918262029842</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.396642631468291</v>
+        <v>7.022197761154553e-19</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.972918262029842</v>
+        <v>58635991673.40213</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>7.022197761154553e-19</v>
+        <v>2.056210024366704e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>58635991673.40213</v>
+        <v>2414.357652444384</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.056210024366704e-09</v>
+        <v>6.651165652692474e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2414.357652444384</v>
+        <v>10.03771992274555</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>6.651165652692474e-05</v>
+        <v>1.224431543973778</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.03771992274555</v>
+        <v>0.006701436575900816</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.224431543973778</v>
+        <v>5.705378498832157</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.006701436575900816</v>
+        <v>0.9594506978422033</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>5.705378498832157</v>
+        <v>0.908584104265825</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9594506978422033</v>
+        <v>292</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.908584104265825</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>292</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>7.231685846967697</v>
       </c>
     </row>
@@ -8886,72 +8796,66 @@
         <v>1.098653440683236e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.06262392620664603</v>
+        <v>3.255643445700133e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.484744856618176</v>
+        <v>6.191038034904663e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.255643445700133e-08</v>
+        <v>-0.04853804733299435</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.191038034904663e-07</v>
+        <v>0.03293669464453397</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04853804733299435</v>
+        <v>0.003440775727077858</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.03293669464453397</v>
+        <v>1.925417678350954</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003440775727077858</v>
+        <v>3.284085139780871</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.957932521838827</v>
+        <v>6.028033962164844</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.284085139780871</v>
+        <v>6.894373670883423e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.028033962164844</v>
+        <v>59738574304.86108</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.894373670883423e-19</v>
+        <v>2.011546345201928e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>59738574304.86108</v>
+        <v>2460.393242854206</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.011546345201928e-09</v>
+        <v>7.59561400492524e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2460.393242854206</v>
+        <v>9.709661416649269</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>7.59561400492524e-05</v>
+        <v>1.285825197641092</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.709661416649269</v>
+        <v>0.007160956879178055</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.285825197641092</v>
+        <v>5.326273742248812</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.007160956879178055</v>
+        <v>0.9608762126827814</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>5.326273742248812</v>
+        <v>0.9301985407336838</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9608762126827814</v>
+        <v>308</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.9301985407336838</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>308</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>6.005025295276644</v>
       </c>
     </row>
@@ -8966,72 +8870,66 @@
         <v>1.095390175565506e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.02308996855251878</v>
+        <v>3.272687848388304e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.501231731229848</v>
+        <v>6.185641569404471e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.272687848388304e-08</v>
+        <v>-0.04968932974324956</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.185641569404471e-07</v>
+        <v>0.0309872487373684</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04968932974324956</v>
+        <v>0.00342951816414837</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0309872487373684</v>
+        <v>1.926003836992485</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.00342951816414837</v>
+        <v>3.323761976802801</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.955587838681065</v>
+        <v>5.954877481976109</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.323761976802801</v>
+        <v>7.064810838681146e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.954877481976109</v>
+        <v>57954044686.73313</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>7.064810838681146e-19</v>
+        <v>2.073120402531267e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>57954044686.73313</v>
+        <v>2372.837737238203</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.073120402531267e-09</v>
+        <v>8.181611753825257e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2372.837737238203</v>
+        <v>8.559729920715224</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>8.181611753825257e-05</v>
+        <v>1.348383181878766</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.559729920715224</v>
+        <v>0.005994583178143546</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.348383181878766</v>
+        <v>5.122009211145032</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.005994583178143546</v>
+        <v>0.9618388024560516</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>5.122009211145032</v>
+        <v>0.9366980745336823</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9618388024560516</v>
+        <v>304</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.9366980745336823</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>304</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>5.071675764438455</v>
       </c>
     </row>
@@ -9046,72 +8944,66 @@
         <v>1.089071532531168e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.01231118274184473</v>
+        <v>3.279982095712596e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.52023269747817</v>
+        <v>6.180179952739219e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.279982095712596e-08</v>
+        <v>-0.0501904750837238</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.180179952739219e-07</v>
+        <v>0.03081777184720314</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0501904750837238</v>
+        <v>0.003469124668924491</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.03081777184720314</v>
+        <v>1.923433450195199</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003469124668924491</v>
+        <v>3.157293552727061</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.9527247696612</v>
+        <v>6.08600385734071</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.157293552727061</v>
+        <v>6.763659759037483e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>6.08600385734071</v>
+        <v>61965688318.04288</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.763659759037483e-19</v>
+        <v>1.943256248465879e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>61965688318.04288</v>
+        <v>2597.073908126709</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.943256248465879e-09</v>
+        <v>8.638298304818886e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>2597.073908126709</v>
+        <v>8.306622619176878</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>8.638298304818886e-05</v>
+        <v>1.363647726614335</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.306622619176878</v>
+        <v>0.005960424045429814</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.363647726614335</v>
+        <v>5.057774930797522</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.005960424045429814</v>
+        <v>0.9634250450038923</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>5.057774930797522</v>
+        <v>0.9091905499561767</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9634250450038923</v>
+        <v>322</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.9091905499561767</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>322</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>4.957248732846024</v>
       </c>
     </row>
@@ -9126,72 +9018,66 @@
         <v>1.080625492779152e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.04598713170554801</v>
+        <v>3.254865047737505e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.540097436666999</v>
+        <v>6.174730136831315e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.254865047737505e-08</v>
+        <v>-0.05019694747561291</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.174730136831315e-07</v>
+        <v>0.03143863628446194</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05019694747561291</v>
+        <v>0.003508333116652197</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.03143863628446194</v>
+        <v>1.919335991345553</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003508333116652197</v>
+        <v>3.161128168495469</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.953614668414662</v>
+        <v>6.399043858321402</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.161128168495469</v>
+        <v>6.118092313539223e-19</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>6.399043858321402</v>
+        <v>69197315029.30406</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>6.118092313539223e-19</v>
+        <v>1.7357429060464e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>69197315029.30406</v>
+        <v>2929.506813764916</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.7357429060464e-09</v>
+        <v>9.157411140586426e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>2929.506813764916</v>
+        <v>9.311426251834394</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>9.157411140586426e-05</v>
+        <v>1.253255784153099</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.311426251834394</v>
+        <v>0.007939718940105641</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.253255784153099</v>
+        <v>5.008173514594318</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.007939718940105641</v>
+        <v>0.9631051305774663</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>5.008173514594318</v>
+        <v>0.9252157638407639</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9631051305774663</v>
+        <v>347</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.9252157638407639</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>347</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>5.300054109316092</v>
       </c>
     </row>
@@ -9206,72 +9092,66 @@
         <v>1.070797919553685e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.07977356704741612</v>
+        <v>3.213129035736816e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.558334405012717</v>
+        <v>6.169339259609949e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.213129035736816e-08</v>
+        <v>-0.05000949454080476</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.169339259609949e-07</v>
+        <v>0.03213231287336265</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05000949454080476</v>
+        <v>0.003533544039257482</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.03213231287336265</v>
+        <v>1.916147713974662</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003533544039257482</v>
+        <v>3.876234005783392</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.951437610568952</v>
+        <v>6.200202003906928</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.876234005783392</v>
+        <v>6.51680192303799e-19</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>6.200202003906928</v>
+        <v>66589417855.66193</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>6.51680192303799e-19</v>
+        <v>1.804669393961919e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>66589417855.66193</v>
+        <v>2889.648096393564</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.804669393961919e-09</v>
+        <v>9.706869432156614e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>2889.648096393564</v>
+        <v>10.41559752240359</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>9.706869432156614e-05</v>
+        <v>1.191820775309753</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.41559752240359</v>
+        <v>0.01053046544054998</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.191820775309753</v>
+        <v>4.895762332131145</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01053046544054998</v>
+        <v>0.9621800700362557</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.895762332131145</v>
+        <v>0.9420220957013111</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9621800700362557</v>
+        <v>338</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.9420220957013111</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>338</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>5.485909550779088</v>
       </c>
     </row>
@@ -9286,72 +9166,66 @@
         <v>1.060184564252244e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.1145405699152958</v>
+        <v>3.167670660826235e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.572750919294576</v>
+        <v>6.164021744693642e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.167670660826235e-08</v>
+        <v>-0.04979623944305366</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.164021744693642e-07</v>
+        <v>0.03271516217484238</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04979623944305366</v>
+        <v>0.003549997301620811</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.03271516217484238</v>
+        <v>1.917919615598839</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003549997301620811</v>
+        <v>3.78182295807463</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.950310590402969</v>
+        <v>6.094832987965802</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.78182295807463</v>
+        <v>6.744077932372737e-19</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>6.094832987965802</v>
+        <v>66603329898.44164</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.744077932372737e-19</v>
+        <v>1.812291372575605e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>66603329898.44164</v>
+        <v>2991.675367349542</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.812291372575605e-09</v>
+        <v>9.669007525893093e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>2991.675367349542</v>
+        <v>9.517143017209277</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>9.669007525893093e-05</v>
+        <v>1.246727726133847</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.517143017209277</v>
+        <v>0.00875780134055015</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.246727726133847</v>
+        <v>4.877998786433657</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.00875780134055015</v>
+        <v>0.9619671857428966</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>4.877998786433657</v>
+        <v>0.9001049424859792</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9619671857428966</v>
+        <v>325</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.9001049424859792</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>325</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>4.920126021745794</v>
       </c>
     </row>
@@ -9366,72 +9240,66 @@
         <v>1.049116811100333e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.1506631797566741</v>
+        <v>3.121879624978314e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.581926983382941</v>
+        <v>6.158780427131308e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.121879624978314e-08</v>
+        <v>-0.04959475057887849</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.158780427131308e-07</v>
+        <v>0.0332171171554783</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04959475057887849</v>
+        <v>0.003563013118444253</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.0332171171554783</v>
+        <v>1.919233024130355</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003563013118444253</v>
+        <v>3.917062122675711</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.9519492723752</v>
+        <v>6.031516670428346</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.917062122675711</v>
+        <v>6.886414094131989e-19</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>6.031516670428346</v>
+        <v>65845075282.32053</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>6.886414094131989e-19</v>
+        <v>1.831029867268383e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>65845075282.32053</v>
+        <v>2985.655747922959</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.831029867268383e-09</v>
+        <v>9.749466087265791e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>2985.655747922959</v>
+        <v>8.574180774091806</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>9.749466087265791e-05</v>
+        <v>1.355101353250202</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.574180774091806</v>
+        <v>0.007167473640452809</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.355101353250202</v>
+        <v>4.826052323953453</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.007167473640452809</v>
+        <v>0.961476655330916</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>4.826052323953453</v>
+        <v>0.9073536923356206</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.961476655330916</v>
+        <v>316</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.9073536923356206</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>316</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>4.416077147516154</v>
       </c>
     </row>
@@ -9446,72 +9314,66 @@
         <v>1.037852717674317e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1883506554830898</v>
+        <v>3.078815221529036e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.584589813630202</v>
+        <v>6.153613777323466e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.078815221529036e-08</v>
+        <v>-0.04944213200623617</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.153613777323466e-07</v>
+        <v>0.03361791479143714</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04944213200623617</v>
+        <v>0.003574631702778772</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.03361791479143714</v>
+        <v>1.919201105907593</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003574631702778772</v>
+        <v>3.882456038252258</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.953147708711442</v>
+        <v>5.947901385034934</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.882456038252258</v>
+        <v>7.081392723399455e-19</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.947901385034934</v>
+        <v>63542207808.74088</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>7.081392723399455e-19</v>
+        <v>1.898206362894783e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>63542207808.74088</v>
+        <v>2859.191746327276</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.898206362894783e-09</v>
+        <v>9.430208104292527e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2859.191746327276</v>
+        <v>9.043541332606102</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>9.430208104292527e-05</v>
+        <v>1.296967883330131</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.043541332606102</v>
+        <v>0.007712556035825699</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.296967883330131</v>
+        <v>4.863340394610141</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.007712556035825699</v>
+        <v>0.9611950438642973</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.863340394610141</v>
+        <v>0.9006639924558197</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9611950438642973</v>
+        <v>274</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.9006639924558197</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>274</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>4.647807333360774</v>
       </c>
     </row>
@@ -9526,72 +9388,66 @@
         <v>1.026616673331658e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.2276684541812951</v>
+        <v>3.038472614223899e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.579531021460105</v>
+        <v>6.148516265702618e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.038472614223899e-08</v>
+        <v>-0.04932840168919039</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.148516265702618e-07</v>
+        <v>0.03396606743275408</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04932840168919039</v>
+        <v>0.003586923273384251</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.03396606743275408</v>
+        <v>1.922828553111906</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003586923273384251</v>
+        <v>3.368363648163455</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.956791783083996</v>
+        <v>6.007575687453658</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.368363648163455</v>
+        <v>6.941409999505622e-19</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>6.007575687453658</v>
+        <v>65468332031.42555</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>6.941409999505622e-19</v>
+        <v>1.843477472990025e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>65468332031.42555</v>
+        <v>2975.159474530485</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.843477472990025e-09</v>
+        <v>8.785523058138072e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2975.159474530485</v>
+        <v>10.09515801239932</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>8.785523058138072e-05</v>
+        <v>1.198971047133238</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.09515801239932</v>
+        <v>0.008953521173828787</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.198971047133238</v>
+        <v>5.058317534959645</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.008953521173828787</v>
+        <v>0.9612345826351705</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.058317534959645</v>
+        <v>0.8839285876045665</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9612345826351705</v>
+        <v>291</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8839285876045665</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>291</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>5.598806585286526</v>
       </c>
     </row>
@@ -9606,72 +9462,66 @@
         <v>1.015493127682202e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.2685881086675607</v>
+        <v>3.003068766503518e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.565928015844289</v>
+        <v>6.14348290595214e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.003068766503518e-08</v>
+        <v>-0.04928843452262269</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.14348290595214e-07</v>
+        <v>0.03427884393716949</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04928843452262269</v>
+        <v>0.003604263960895676</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.03427884393716949</v>
+        <v>1.917334427077517</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003604263960895676</v>
+        <v>4.026358559855063</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.954046277702426</v>
+        <v>5.387416795900871</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>4.026358559855063</v>
+        <v>6.657515760460724e-19</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.387416795900871</v>
+        <v>66064279664.69517</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>6.657515760460724e-19</v>
+        <v>1.818027710481392e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>66064279664.69517</v>
+        <v>2905.665462085545</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.818027710481392e-09</v>
+        <v>7.716717305064425e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2905.665462085545</v>
+        <v>10.64076777640922</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>7.716717305064425e-05</v>
+        <v>1.16739483340632</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.64076777640922</v>
+        <v>0.008737325618716308</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.16739483340632</v>
+        <v>5.480073831888352</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.008737325618716308</v>
+        <v>0.9595568701041195</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>5.480073831888352</v>
+        <v>0.9005760382652565</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9595568701041195</v>
+        <v>290</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.9005760382652565</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>290</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>7.019263958301648</v>
       </c>
     </row>
@@ -9686,72 +9536,66 @@
         <v>1.004714741523848e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.3108609891785526</v>
+        <v>2.976765543988464e-08</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.542596516377364</v>
+        <v>6.138500755069508e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.976765543988464e-08</v>
+        <v>-0.04938163709715991</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>6.138500755069508e-07</v>
+        <v>0.03451634540784022</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04938163709715991</v>
+        <v>0.003629718511075506</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.03451634540784022</v>
+        <v>1.919304063322203</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.003629718511075506</v>
+        <v>3.705605390665788</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.956423467186331</v>
+        <v>5.370436937483706</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.705605390665788</v>
+        <v>6.699680814437324e-19</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>5.370436937483706</v>
+        <v>65505687229.15097</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>6.699680814437324e-19</v>
+        <v>1.830630480042738e-09</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>65505687229.15097</v>
+        <v>2874.8297274062</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.830630480042738e-09</v>
+        <v>7.19891849393676e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2874.8297274062</v>
+        <v>9.813771502494156</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>7.19891849393676e-05</v>
+        <v>1.331646842463758</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.813771502494156</v>
+        <v>0.006933286399736886</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.331646842463758</v>
+        <v>5.897082766931511</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.006933286399736886</v>
+        <v>0.9572692091786691</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>5.897082766931511</v>
+        <v>0.9295684612331666</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9572692091786691</v>
+        <v>269</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.9295684612331666</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>269</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>7.888464819462351</v>
       </c>
     </row>
@@ -9766,72 +9610,66 @@
         <v>9.945117942051902e-09</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.354113926996463</v>
+        <v>2.958956430265201e-08</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.508340095311074</v>
+        <v>6.133555588633408e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.958956430265201e-08</v>
+        <v>-0.04958966355368128</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>6.133555588633408e-07</v>
+        <v>0.03475920697779944</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04958966355368128</v>
+        <v>0.00366715611288497</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.03475920697779944</v>
+        <v>1.918451758291779</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.00366715611288497</v>
+        <v>4.124198341720851</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.953226911437912</v>
+        <v>5.460535599486457</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>4.124198341720851</v>
+        <v>6.480415758939979e-19</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.460535599486457</v>
+        <v>67470399744.98406</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>6.480415758939979e-19</v>
+        <v>1.780611671175503e-09</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>67470399744.98406</v>
+        <v>2950.050401517421</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.780611671175503e-09</v>
+        <v>6.470477693712127e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>2950.050401517421</v>
+        <v>9.254061060436623</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>6.470477693712127e-05</v>
+        <v>1.543508861599634</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.254061060436623</v>
+        <v>0.005541164788986406</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.543508861599634</v>
+        <v>6.177215632875491</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.005541164788986406</v>
+        <v>0.958681206675463</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>6.177215632875491</v>
+        <v>0.8657746502405655</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.958681206675463</v>
+        <v>286</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.8657746502405655</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>286</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>8.368935688337608</v>
       </c>
     </row>
@@ -9846,72 +9684,66 @@
         <v>9.84844956046545e-09</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3978311217597833</v>
+        <v>2.947003843196218e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.462903984706491</v>
+        <v>6.128634093700578e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.947003843196218e-08</v>
+        <v>-0.04987376410420488</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>6.128634093700578e-07</v>
+        <v>0.03503842668670205</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04987376410420488</v>
+        <v>0.003714946309464274</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.03503842668670205</v>
+        <v>1.921523640554226</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.003714946309464274</v>
+        <v>3.648329705906617</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.952974696387534</v>
+        <v>5.294723707673352</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.648329705906617</v>
+        <v>5.533407357045064e-19</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.294723707673352</v>
+        <v>78960173150.39233</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.533407357045064e-19</v>
+        <v>1.5212307221107e-09</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>78960173150.39233</v>
+        <v>3449.918433943192</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.5212307221107e-09</v>
+        <v>4.024407400333939e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>3449.918433943192</v>
+        <v>9.443895861788398</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>4.024407400333939e-05</v>
+        <v>1.37829822962687</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.443895861788398</v>
+        <v>0.003589255031328288</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.37829822962687</v>
+        <v>6.539318520929082</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.003589255031328288</v>
+        <v>0.9602378698530889</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>6.539318520929082</v>
+        <v>0.8476347669639283</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9602378698530889</v>
+        <v>317</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.8476347669639283</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>317</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>9.258644344540814</v>
       </c>
     </row>
@@ -9926,72 +9758,66 @@
         <v>9.755841313005617e-09</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.4418502205185203</v>
+        <v>2.93286807584038e-08</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.406191875779066</v>
+        <v>6.123733679675526e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.93286807584038e-08</v>
+        <v>-0.05010526930840444</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>6.123733679675526e-07</v>
+        <v>0.0353173833379644</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05010526930840444</v>
+        <v>0.00375776226142759</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.0353173833379644</v>
+        <v>1.911928257008192</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.00375776226142759</v>
+        <v>4.094647947846187</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.94476161658503</v>
+        <v>5.28713636383033</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>4.094647947846187</v>
+        <v>5.705875047084486e-19</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.28713636383033</v>
+        <v>79785899741.37396</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.705875047084486e-19</v>
+        <v>1.506675425526359e-09</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>79785899741.37396</v>
+        <v>3632.240116077179</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.506675425526359e-09</v>
+        <v>3.423509357347795e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>3632.240116077179</v>
+        <v>8.904350670786354</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>3.423509357347795e-05</v>
+        <v>1.309488752836455</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.904350670786354</v>
+        <v>0.002714413642030864</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.309488752836455</v>
+        <v>6.579147030064127</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.002714413642030864</v>
+        <v>0.9599280634954213</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>6.579147030064127</v>
+        <v>0.8154953013254986</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9599280634954213</v>
+        <v>329</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.8154953013254986</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>329</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>9.440470330741837</v>
       </c>
     </row>
@@ -10006,72 +9832,66 @@
         <v>9.665601940017033e-09</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.4864429416103363</v>
+        <v>2.911818163639296e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.338063324077619</v>
+        <v>6.118861779062483e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.911818163639296e-08</v>
+        <v>-0.05020898402498495</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>6.118861779062483e-07</v>
+        <v>0.03562779828479329</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05020898402498495</v>
+        <v>0.003790290061789595</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.03562779828479329</v>
+        <v>1.908841611747268</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.003790290061789595</v>
+        <v>3.667496580846707</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.943816771471546</v>
+        <v>5.353208294118488</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.667496580846707</v>
+        <v>6.934907228928035e-19</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.353208294118488</v>
+        <v>65359493974.49492</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>6.934907228928035e-19</v>
+        <v>1.838737992760111e-09</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>65359493974.49492</v>
+        <v>2962.497673844335</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.838737992760111e-09</v>
+        <v>4.303237557702845e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>2962.497673844335</v>
+        <v>8.538860697683557</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>4.303237557702845e-05</v>
+        <v>1.495296337115</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.538860697683557</v>
+        <v>0.003137582679291229</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.495296337115</v>
+        <v>6.461072189336602</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.003137582679291229</v>
+        <v>0.9599158967501445</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>6.461072189336602</v>
+        <v>0.8483830202581724</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9599158967501445</v>
+        <v>286</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.8483830202581724</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>286</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>9.030316812629112</v>
       </c>
     </row>
@@ -10086,72 +9906,66 @@
         <v>9.573874416318445e-09</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.5322552081165141</v>
+        <v>2.883964041705272e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.258821485097982</v>
+        <v>6.114031483471736e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.883964041705272e-08</v>
+        <v>-0.05020337909327587</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>6.114031483471736e-07</v>
+        <v>0.03609171104230122</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05020337909327587</v>
+        <v>0.003823136783630505</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.03609171104230122</v>
+        <v>1.910497067940423</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.003823136783630505</v>
+        <v>3.334367322793494</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.941529836907771</v>
+        <v>6.120664762641892</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.334367322793494</v>
+        <v>8.087773614521387e-19</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>6.120664762641892</v>
+        <v>56493567686.4555</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>8.087773614521387e-19</v>
+        <v>2.129656003461438e-09</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>56493567686.4555</v>
+        <v>2581.231704576325</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.129656003461438e-09</v>
+        <v>5.613005320582571e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>2581.231704576325</v>
+        <v>10.29247402181118</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>5.613005320582571e-05</v>
+        <v>1.275908064773151</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.29247402181118</v>
+        <v>0.005946138392574792</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.275908064773151</v>
+        <v>6.242921133471973</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.005946138392574792</v>
+        <v>0.9608573213388032</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>6.242921133471973</v>
+        <v>0.8265511900560442</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9608573213388032</v>
+        <v>270</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.8265511900560442</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>270</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>8.954687886020169</v>
       </c>
     </row>
@@ -10166,72 +9980,66 @@
         <v>9.474279221105671e-09</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5798456450470044</v>
+        <v>2.889394219253725e-08</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.169185055406115</v>
+        <v>6.109248836000013e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.889394219253725e-08</v>
+        <v>-0.05022792215942309</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>6.109248836000013e-07</v>
+        <v>0.03681186354250541</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05022792215942309</v>
+        <v>0.003878229465197082</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.03681186354250541</v>
+        <v>1.91072662184056</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.003878229465197082</v>
+        <v>3.809095387657342</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.942538592544664</v>
+        <v>5.565317635731413</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.809095387657342</v>
+        <v>9.78241899027005e-19</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.565317635731413</v>
+        <v>48252167435.51443</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>9.78241899027005e-19</v>
+        <v>2.498077355608597e-09</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>48252167435.51443</v>
+        <v>2277.612892305667</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.498077355608597e-09</v>
+        <v>7.116110028238632e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>2277.612892305667</v>
+        <v>12.51478143918831</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>7.116110028238632e-05</v>
+        <v>1.088723239746286</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>12.51478143918831</v>
+        <v>0.0111452340540888</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.088723239746286</v>
+        <v>5.945093340741184</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.0111452340540888</v>
+        <v>0.9606142999837656</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>5.945093340741184</v>
+        <v>0.7928901377045577</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9606142999837656</v>
+        <v>268</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.7928901377045577</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>268</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>8.62504819657023</v>
       </c>
     </row>
@@ -10246,72 +10054,66 @@
         <v>9.357645838528865e-09</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.6294725728786662</v>
+        <v>2.889404314922163e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.070223620892137</v>
+        <v>6.10451080764057e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.889404314922163e-08</v>
+        <v>-0.05042451910278124</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>6.10451080764057e-07</v>
+        <v>0.03780158908314868</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05042451910278124</v>
+        <v>0.003971901155951535</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.03780158908314868</v>
+        <v>1.908590380941698</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.003971901155951535</v>
+        <v>3.601978299925098</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.94425710932196</v>
+        <v>5.115016483273244</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>3.601978299925098</v>
+        <v>1.158062764101982e-18</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>5.115016483273244</v>
+        <v>40126331232.30618</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.158062764101982e-18</v>
+        <v>2.995970465906306e-09</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>40126331232.30618</v>
+        <v>1864.622864444949</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.995970465906306e-09</v>
+        <v>7.059494024929979e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>1864.622864444949</v>
+        <v>13.44116970681906</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>7.059494024929979e-05</v>
+        <v>1.025637784303942</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>13.44116970681906</v>
+        <v>0.01275403792189997</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.025637784303942</v>
+        <v>5.909391597602561</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01275403792189997</v>
+        <v>0.9600622604273243</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>5.909391597602561</v>
+        <v>0.8288425523006382</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9600622604273243</v>
+        <v>250</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.8288425523006382</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>8.412183306700079</v>
       </c>
     </row>
@@ -10326,72 +10128,66 @@
         <v>9.212043391991531e-09</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.680564194630169</v>
+        <v>2.889404314922163e-08</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.9641214716673301</v>
+        <v>6.099803306333234e-07</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.889404314922163e-08</v>
+        <v>-0.05099484947339084</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>6.099803306333234e-07</v>
+        <v>0.03881527349753983</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.05099484947339084</v>
+        <v>0.004107290010071947</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.03881527349753983</v>
+        <v>1.917001876973327</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.004107290010071947</v>
+        <v>3.461596613396029</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.948549873389251</v>
+        <v>4.802811632964205</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3.461596613396029</v>
+        <v>1.313515085970222e-18</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.802811632964205</v>
+        <v>35002846751.36073</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.313515085970222e-18</v>
+        <v>3.442537515121388e-09</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>35002846751.36073</v>
+        <v>1609.317738518323</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>3.442537515121388e-09</v>
+        <v>6.185742153705723e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>1609.317738518323</v>
+        <v>12.46478695924435</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>6.185742153705723e-05</v>
+        <v>1.082965093705862</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>12.46478695924435</v>
+        <v>0.009610844118144089</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.082965093705862</v>
+        <v>6.05675456045528</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.009610844118144089</v>
+        <v>0.961003848989897</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>6.05675456045528</v>
+        <v>0.8059173501341432</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.961003848989897</v>
+        <v>225</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.8059173501341432</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>8.362030712443094</v>
       </c>
     </row>
@@ -10406,72 +10202,66 @@
         <v>9.025397616680185e-09</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.7313415183200196</v>
+        <v>2.889404314922163e-08</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.8556586382862976</v>
+        <v>6.095113331745206e-07</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.889404314922163e-08</v>
+        <v>-0.05182845922101659</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>6.095113331745206e-07</v>
+        <v>0.04011234290781977</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05182845922101659</v>
+        <v>0.004295375797706443</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.04011234290781977</v>
+        <v>1.919750383850233</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.004295375797706443</v>
+        <v>3.390706131149065</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.947522928210527</v>
+        <v>4.891448382829947</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>3.390706131149065</v>
+        <v>1.266342617580522e-18</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.891448382829947</v>
+        <v>35595086630.77416</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.266342617580522e-18</v>
+        <v>3.388891321382735e-09</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>35595086630.77416</v>
+        <v>1604.469003358001</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>3.388891321382735e-09</v>
+        <v>7.775660705253844e-05</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>1604.469003358001</v>
+        <v>10.4767509882839</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>7.775660705253844e-05</v>
+        <v>1.363716129597297</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>10.4767509882839</v>
+        <v>0.008534744906639273</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.363716129597297</v>
+        <v>5.848862848615188</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.008534744906639273</v>
+        <v>0.9614920712645233</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>5.848862848615188</v>
+        <v>0.8547778859723145</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9614920712645233</v>
+        <v>226</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.8547778859723145</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>226</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>7.541180424379005</v>
       </c>
     </row>
@@ -10486,72 +10276,66 @@
         <v>8.796489887653643e-09</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.7798891339555964</v>
+        <v>2.887039497213698e-08</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.7495342449173901</v>
+        <v>6.090452885474845e-07</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.887039497213698e-08</v>
+        <v>-0.05273100526912997</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>6.090452885474845e-07</v>
+        <v>0.04192171773213036</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05273100526912997</v>
+        <v>0.004538315959857766</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.04192171773213036</v>
+        <v>1.909256925577735</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.004538315959857766</v>
+        <v>3.331172407188228</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.939600393325986</v>
+        <v>5.285797401212896</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>3.331172407188228</v>
+        <v>1.756197575687729e-18</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>5.285797401212896</v>
+        <v>24551038745.03777</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.756197575687729e-18</v>
+        <v>4.886521915744151e-09</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>24551038745.03777</v>
+        <v>1058.554241514344</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>4.886521915744151e-09</v>
+        <v>0.0001384881708738958</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>1058.554241514344</v>
+        <v>9.961275067481598</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001384881708738958</v>
+        <v>1.612333664338911</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.961275067481598</v>
+        <v>0.01374176586564181</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.612333664338911</v>
+        <v>4.977726754711219</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01374176586564181</v>
+        <v>0.9606164711739823</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>4.977726754711219</v>
+        <v>1.002554354674479</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9606164711739823</v>
+        <v>194</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.002554354674479</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>194</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>5.583398395269763</v>
       </c>
     </row>
@@ -10566,72 +10350,66 @@
         <v>8.538132575274692e-09</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.8255691034727637</v>
+        <v>2.856742483194287e-08</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.6455340726529282</v>
+        <v>6.085839750230459e-07</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.856742483194287e-08</v>
+        <v>-0.05370473936307506</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>6.085839750230459e-07</v>
+        <v>0.04371740596607147</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05370473936307506</v>
+        <v>0.004795603944963368</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.04371740596607147</v>
+        <v>1.909869346844057</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.004795603944963368</v>
+        <v>2.95555206752669</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.941986142692583</v>
+        <v>4.70148852949114</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.95555206752669</v>
+        <v>2.220917139839368e-18</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.70148852949114</v>
+        <v>19565390865.69674</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.220917139839368e-18</v>
+        <v>6.131631907450531e-09</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>19565390865.69674</v>
+        <v>850.1771190707582</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>6.131631907450531e-09</v>
+        <v>0.0001667057385856018</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>850.1771190707582</v>
+        <v>10.77418482334848</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001667057385856018</v>
+        <v>1.409775785897197</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.77418482334848</v>
+        <v>0.0193517120224678</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.409775785897197</v>
+        <v>4.230955473842546</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.0193517120224678</v>
+        <v>0.9621328947012189</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>4.230955473842546</v>
+        <v>0.9759968716827668</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9621328947012189</v>
+        <v>176</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.9759968716827668</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>176</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>3.852063614504099</v>
       </c>
     </row>
@@ -10646,72 +10424,66 @@
         <v>8.264140771103586e-09</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.8687434913477062</v>
+        <v>2.802676331383775e-08</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.5403541697461614</v>
+        <v>6.081283886288539e-07</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.802676331383775e-08</v>
+        <v>-0.05475414371284582</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>6.081283886288539e-07</v>
+        <v>0.04535321013704077</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05475414371284582</v>
+        <v>0.005054895459176349</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.04535321013704077</v>
+        <v>1.909300362637494</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.005054895459176349</v>
+        <v>3.204200741131463</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.939305021672499</v>
+        <v>4.57994929835305</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>3.204200741131463</v>
+        <v>2.340355205112342e-18</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.57994929835305</v>
+        <v>18638546215.71164</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.340355205112342e-18</v>
+        <v>6.428228205772608e-09</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>18638546215.71164</v>
+        <v>813.0286444062842</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>6.428228205772608e-09</v>
+        <v>0.0001492699207309104</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>813.0286444062842</v>
+        <v>11.68324835803556</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001492699207309104</v>
+        <v>1.11636759335839</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>11.68324835803556</v>
+        <v>0.02037508925593299</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.11636759335839</v>
+        <v>3.831725222890542</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02037508925593299</v>
+        <v>0.9618608878564413</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.831725222890542</v>
+        <v>0.9927371763335331</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9618608878564413</v>
+        <v>173</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.9927371763335331</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>173</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>2.780207895955721</v>
       </c>
     </row>
@@ -10726,72 +10498,66 @@
         <v>7.983228029872416e-09</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.9097895648935815</v>
+        <v>2.734950124598909e-08</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.4308152911317924</v>
+        <v>6.07679194381799e-07</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.734950124598909e-08</v>
+        <v>-0.05584699753522495</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>6.07679194381799e-07</v>
+        <v>0.04688582035876499</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.05584699753522495</v>
+        <v>0.005316965478813189</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.04688582035876499</v>
+        <v>1.905884286294379</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.005316965478813189</v>
+        <v>3.0696908133412</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.93476342669483</v>
+        <v>4.54981397137376</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>3.0696908133412</v>
+        <v>2.371460184779108e-18</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.54981397137376</v>
+        <v>18386375070.34501</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>2.371460184779108e-18</v>
+        <v>6.518726443359663e-09</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>18386375070.34501</v>
+        <v>801.6929563959617</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>6.518726443359663e-09</v>
+        <v>0.0001438391447376015</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>801.6929563959617</v>
+        <v>11.51081468325476</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001438391447376015</v>
+        <v>1.068733886159971</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>11.51081468325476</v>
+        <v>0.0190585219347658</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.068733886159971</v>
+        <v>3.501270323754845</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.0190585219347658</v>
+        <v>0.9625934646868168</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.501270323754845</v>
+        <v>1.012304288559178</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9625934646868168</v>
+        <v>142</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.012304288559178</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>142</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>2.158491447799197</v>
       </c>
     </row>
@@ -10806,72 +10572,66 @@
         <v>7.699631566680165e-09</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.948517670585586</v>
+        <v>2.664436891124831e-08</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.3154376419544933</v>
+        <v>6.072366274156692e-07</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.664436891124831e-08</v>
+        <v>-0.05706994794101373</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>6.072366274156692e-07</v>
+        <v>0.04845665694837324</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.05706994794101373</v>
+        <v>0.00560481894019575</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.04845665694837324</v>
+        <v>1.90371440443978</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.00560481894019575</v>
+        <v>3.228155754435362</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.93476896378164</v>
+        <v>4.597339606150811</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>3.228155754435362</v>
+        <v>2.322683018989746e-18</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.597339606150811</v>
+        <v>19693095869.9066</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>2.322683018989746e-18</v>
+        <v>6.082797453786948e-09</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>19693095869.9066</v>
+        <v>900.7783409893746</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>6.082797453786948e-09</v>
+        <v>0.0001386682954148207</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>900.7783409893746</v>
+        <v>10.31411894419222</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001386682954148207</v>
+        <v>1.140074157021311</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>10.31411894419222</v>
+        <v>0.0147516788117705</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.140074157021311</v>
+        <v>3.542381431649821</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.0147516788117705</v>
+        <v>0.9636831516950712</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.542381431649821</v>
+        <v>0.9822011743305576</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9636831516950712</v>
+        <v>175</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>0.9822011743305576</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>175</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>1.905633623731827</v>
       </c>
     </row>
@@ -10886,72 +10646,66 @@
         <v>7.412968268787288e-09</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.9835846527069041</v>
+        <v>2.599253144491438e-08</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.1970278220132808</v>
+        <v>6.068003088389194e-07</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.599253144491438e-08</v>
+        <v>-0.05843965861077395</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>6.068003088389194e-07</v>
+        <v>0.05023489072375001</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.05843965861077395</v>
+        <v>0.005938614949832333</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.05023489072375001</v>
+        <v>1.901604875539528</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.005938614949832333</v>
+        <v>3.001971073860707</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.934342677599032</v>
+        <v>4.667153909375143</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>3.001971073860707</v>
+        <v>2.253714358906425e-18</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.667153909375143</v>
+        <v>20077078868.72064</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>2.253714358906425e-18</v>
+        <v>5.951892969324217e-09</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>20077078868.72064</v>
+        <v>908.4476833503071</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>5.951892969324217e-09</v>
+        <v>0.0001442414062375119</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>908.4476833503071</v>
+        <v>8.753739668883593</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001442414062375119</v>
+        <v>1.427610471061037</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>8.753739668883593</v>
+        <v>0.01105292444651943</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.427610471061037</v>
+        <v>3.695021522271265</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01105292444651943</v>
+        <v>0.9645861119555846</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.695021522271265</v>
+        <v>0.9757350445579859</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9645861119555846</v>
+        <v>183</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>0.9757350445579859</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>183</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>1.857830034193083</v>
       </c>
     </row>
@@ -10966,72 +10720,66 @@
         <v>7.120298239153233e-09</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>1.012980304261319</v>
+        <v>2.55948962202935e-08</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.0823592047496069</v>
+        <v>6.063703379794101e-07</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.55948962202935e-08</v>
+        <v>-0.05991056035911201</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>6.063703379794101e-07</v>
+        <v>0.05230693725686443</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.05991056035911201</v>
+        <v>0.00632517687416104</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.05230693725686443</v>
+        <v>1.902671998106817</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.00632517687416104</v>
+        <v>3.296081339535151</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.936805191383046</v>
+        <v>4.665279874100611</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>3.296081339535151</v>
+        <v>2.25552534929324e-18</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.665279874100611</v>
+        <v>20309165574.27882</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>2.25552534929324e-18</v>
+        <v>5.884027614968293e-09</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>20309165574.27882</v>
+        <v>930.3189619880093</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>5.884027614968293e-09</v>
+        <v>0.0001642459448150171</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>930.3189619880093</v>
+        <v>9.020737431999848</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001642459448150171</v>
+        <v>1.607204491858854</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>9.020737431999848</v>
+        <v>0.01336530086653419</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.607204491858854</v>
+        <v>3.718167384585167</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01336530086653419</v>
+        <v>0.9645315075770338</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.718167384585167</v>
+        <v>0.9719843148937335</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9645315075770338</v>
+        <v>155</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>0.9719843148937335</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>155</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>1.973902342091689</v>
       </c>
     </row>
@@ -11046,72 +10794,66 @@
         <v>6.820632593430602e-09</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1.034943833972481</v>
+        <v>2.507595197672352e-08</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.02132558686675123</v>
+        <v>6.059478449666857e-07</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.507595197672352e-08</v>
+        <v>-0.0612755259652061</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6.059478449666857e-07</v>
+        <v>0.05453760756923603</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.0612755259652061</v>
+        <v>0.00672868835016159</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.05453760756923603</v>
+        <v>1.90271739641982</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.00672868835016159</v>
+        <v>3.047115640735637</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.938891471328656</v>
+        <v>4.648836156353179</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>3.047115640735637</v>
+        <v>2.271509916778226e-18</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.648836156353179</v>
+        <v>20997287460.9763</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>2.271509916778226e-18</v>
+        <v>5.701349930240689e-09</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>20997287460.9763</v>
+        <v>1001.477104522405</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>5.701349930240689e-09</v>
+        <v>0.0001551434581323354</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>1001.477104522405</v>
+        <v>10.71851745899938</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001551434581323354</v>
+        <v>1.217436430277846</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>10.71851745899938</v>
+        <v>0.01782390697986169</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.217436430277846</v>
+        <v>3.658904402873278</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01782390697986169</v>
+        <v>0.963884837321381</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.658904402873278</v>
+        <v>0.975431505695793</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.963884837321381</v>
+        <v>146</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>0.975431505695793</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>146</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>2.099910620032516</v>
       </c>
     </row>
@@ -11126,72 +10868,66 @@
         <v>6.51716401586547e-09</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1.049319658310461</v>
+        <v>2.439361022540917e-08</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.1119822682002964</v>
+        <v>6.05535382219228e-07</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.439361022540917e-08</v>
+        <v>-0.06238422816865496</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>6.05535382219228e-07</v>
+        <v>0.05682922525022785</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.06238422816865496</v>
+        <v>0.007120745713141237</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.05682922525022785</v>
+        <v>1.912015704820125</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.007120745713141237</v>
+        <v>3.001195827876349</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.944996729230218</v>
+        <v>4.656285272207495</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>3.001195827876349</v>
+        <v>2.264247816343008e-18</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.656285272207495</v>
+        <v>20458794668.31246</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>2.264247816343008e-18</v>
+        <v>5.858264206234573e-09</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>20458794668.31246</v>
+        <v>947.7287268636777</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>5.858264206234573e-09</v>
+        <v>0.0001484620435932161</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>947.7287268636777</v>
+        <v>11.66123616327594</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001484620435932161</v>
+        <v>1.06979748449445</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>11.66123616327594</v>
+        <v>0.02018852620477273</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.06979748449445</v>
+        <v>3.429001375830195</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.02018852620477273</v>
+        <v>0.9640917131689603</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.429001375830195</v>
+        <v>0.987267546665904</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9640917131689603</v>
+        <v>130</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>0.987267546665904</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>1.988021281749648</v>
       </c>
     </row>
@@ -11568,7 +11304,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.466928517958347</v>
+        <v>1.498805676369261</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.453137122859172</v>
@@ -11657,7 +11393,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.49082660392718</v>
+        <v>1.522777880120254</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.403423435284358</v>
@@ -11746,7 +11482,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.493186330019058</v>
+        <v>1.522718991649312</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.385287929130365</v>
@@ -11835,7 +11571,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.528075410377321</v>
+        <v>1.553224430708256</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.395420990530246</v>
@@ -11924,7 +11660,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.527770943199649</v>
+        <v>1.553040363230996</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.545723135634235</v>
@@ -12013,7 +11749,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.531093534125067</v>
+        <v>1.555689140498949</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.51100057799603</v>
@@ -12102,7 +11838,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.510769741735092</v>
+        <v>1.531292154265946</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.561393594150406</v>
@@ -12191,7 +11927,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.513208632903196</v>
+        <v>1.541298615948367</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.456723238011217</v>
@@ -12280,7 +12016,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.550372377494641</v>
+        <v>1.575328130422869</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.51970771922407</v>
@@ -12369,7 +12105,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.566608229426252</v>
+        <v>1.592586451936362</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.52944505154181</v>
@@ -12458,7 +12194,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.563521842886147</v>
+        <v>1.585467946241386</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.338139373492047</v>
@@ -12547,7 +12283,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.558594070889591</v>
+        <v>1.581235960944657</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.395729027523737</v>
@@ -12636,7 +12372,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.599366157159271</v>
+        <v>1.617511000605366</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.387098911418956</v>
@@ -12725,7 +12461,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.569746019675533</v>
+        <v>1.584850476067427</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.396547685551112</v>
@@ -12814,7 +12550,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.555283025780935</v>
+        <v>1.568606115490517</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.306858936591472</v>
@@ -12903,7 +12639,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.603890512641038</v>
+        <v>1.630988211341111</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.406432108578934</v>
@@ -12992,7 +12728,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.592877171590493</v>
+        <v>1.616892226676565</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.367069755172619</v>
@@ -13081,7 +12817,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.596768816592123</v>
+        <v>1.620421407810207</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.449693452003855</v>
@@ -13170,7 +12906,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.590176013626307</v>
+        <v>1.612070670199067</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.399155877486349</v>
@@ -13259,7 +12995,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.580727490634575</v>
+        <v>1.600986432804693</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.376493848659575</v>
@@ -13348,7 +13084,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.574236720855295</v>
+        <v>1.591453211988551</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.28510781772798</v>
@@ -13437,7 +13173,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.620539362003189</v>
+        <v>1.637010318238515</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.207972207639873</v>
@@ -13526,7 +13262,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.585616308993797</v>
+        <v>1.605102621977318</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.3304697373015</v>
@@ -13615,7 +13351,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.570343282668741</v>
+        <v>1.585562922836967</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.291527131362677</v>
@@ -13704,7 +13440,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.545128159432584</v>
+        <v>1.56256024181049</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.34406721640441</v>
@@ -13793,7 +13529,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.544607740057545</v>
+        <v>1.559655350525372</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.339007426398936</v>
@@ -13882,7 +13618,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.568396103220614</v>
+        <v>1.58115805146596</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.253245702887874</v>
@@ -13971,7 +13707,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.545637753393774</v>
+        <v>1.559330042959964</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.267479553540571</v>
@@ -14060,7 +13796,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.571673095567718</v>
+        <v>1.58359260058168</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.293545571621301</v>
@@ -14149,7 +13885,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.574742343052762</v>
+        <v>1.586676822663006</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.11513824433041</v>
@@ -14238,7 +13974,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.520341395983711</v>
+        <v>1.513220991705839</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.312136248426461</v>
@@ -14327,7 +14063,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.506858581445906</v>
+        <v>1.499848179240371</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.251960556662295</v>
@@ -14416,7 +14152,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.49464586621821</v>
+        <v>1.487739188386751</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.167297638244719</v>
@@ -14505,7 +14241,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.498155604877127</v>
+        <v>1.491801984518982</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.188790210786952</v>
@@ -14594,7 +14330,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.498899408085023</v>
+        <v>1.487419138692644</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.271648822711772</v>
@@ -14683,7 +14419,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.499033120104766</v>
+        <v>1.490598754502659</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.281836797930254</v>
@@ -14772,7 +14508,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.502614387590865</v>
+        <v>1.492566330743664</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.300851386882896</v>
@@ -14861,7 +14597,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.556086633803433</v>
+        <v>1.533468676419528</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.295200663390656</v>
@@ -14950,7 +14686,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.557810936875925</v>
+        <v>1.540681113800748</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.432715289129399</v>
@@ -15039,7 +14775,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.524999369531734</v>
+        <v>1.515982871224516</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.271567506634055</v>
@@ -15128,7 +14864,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.522338799145154</v>
+        <v>1.515799760261113</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.254464151367843</v>
@@ -15217,7 +14953,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.54125179446622</v>
+        <v>1.528488245976706</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.106169488114862</v>
@@ -15306,7 +15042,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.564371796821797</v>
+        <v>1.557085463112368</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.2126240754651</v>
@@ -15395,7 +15131,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.534404785719008</v>
+        <v>1.530791445232974</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.235161779895118</v>
@@ -15484,7 +15220,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.532545886833488</v>
+        <v>1.530002546692787</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.242387105025105</v>
@@ -15573,7 +15309,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.563105338036663</v>
+        <v>1.559454498603217</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.200560470260827</v>
@@ -15662,7 +15398,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.571346431291227</v>
+        <v>1.568842069534118</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.226098819569803</v>
@@ -15751,7 +15487,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.56795829999874</v>
+        <v>1.560976261577175</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.256552844879241</v>
@@ -15840,7 +15576,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.596542462207301</v>
+        <v>1.586403570678744</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.200094830369423</v>
@@ -15929,7 +15665,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.598752145692738</v>
+        <v>1.596063833731402</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.220309538682015</v>
@@ -16018,7 +15754,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.60104157124545</v>
+        <v>1.594862736975277</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.187562255901661</v>
@@ -16107,7 +15843,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.551751651146784</v>
+        <v>1.551261503427463</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.212855985806218</v>
@@ -16196,7 +15932,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.577556080782248</v>
+        <v>1.578324201827484</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.207342919097408</v>
@@ -16285,7 +16021,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.582289664896305</v>
+        <v>1.581260717716627</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.193850373117925</v>
@@ -16374,7 +16110,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.62000749524641</v>
+        <v>1.610170890889043</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.334194376419731</v>
@@ -16463,7 +16199,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.567002239893874</v>
+        <v>1.566860053083158</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.184376714540948</v>
@@ -16552,7 +16288,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.530607070560012</v>
+        <v>1.542669922210696</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.219797318552929</v>
@@ -16641,7 +16377,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.527802184200327</v>
+        <v>1.540275519571744</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.208478055928141</v>
@@ -16730,7 +16466,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.548003618838575</v>
+        <v>1.561864710859763</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.271833252043644</v>
@@ -16819,7 +16555,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.519219136522029</v>
+        <v>1.530321573502177</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.297925196487879</v>
@@ -16908,7 +16644,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.518347151785272</v>
+        <v>1.528435278603628</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.258056210788778</v>
@@ -16997,7 +16733,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.518732093031212</v>
+        <v>1.52357608071393</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.312175069265754</v>
@@ -17086,7 +16822,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.50885356352086</v>
+        <v>1.519593327981795</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.254123664357326</v>
@@ -17175,7 +16911,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.503435748737012</v>
+        <v>1.515051230290928</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.209337543347476</v>
@@ -17264,7 +17000,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.505068165964682</v>
+        <v>1.518497037618107</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.213508766195131</v>
@@ -17353,7 +17089,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.491071722356199</v>
+        <v>1.503062179537294</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.158327590010317</v>
@@ -17442,7 +17178,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.530071285125988</v>
+        <v>1.543417180757258</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.229507908522899</v>
@@ -17531,7 +17267,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.523797621644765</v>
+        <v>1.535593299538297</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.207990834171546</v>
@@ -17620,7 +17356,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.523745245324638</v>
+        <v>1.536016014167793</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.263697278901752</v>
@@ -17709,7 +17445,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.558725307714231</v>
+        <v>1.570292771683422</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.157987709516138</v>
@@ -17798,7 +17534,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.608713868030736</v>
+        <v>1.61160833518377</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.385182392791684</v>
@@ -17887,7 +17623,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.571157933543596</v>
+        <v>1.579538903370971</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.39658221199823</v>
@@ -17976,7 +17712,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.569340983384445</v>
+        <v>1.576316994186607</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.392612395097466</v>
@@ -18065,7 +17801,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.587761525296652</v>
+        <v>1.590437289336674</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.343304243106936</v>
@@ -18154,7 +17890,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.623620674216277</v>
+        <v>1.630609979562303</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.343108735821195</v>
@@ -18243,7 +17979,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.582286630158042</v>
+        <v>1.59198518079532</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.352724851952409</v>
@@ -18332,7 +18068,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.57411493132599</v>
+        <v>1.588553087021544</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.311141286966398</v>
@@ -18421,7 +18157,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.610761668356893</v>
+        <v>1.618666890516125</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.28872950208278</v>
@@ -18510,7 +18246,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.574273122693846</v>
+        <v>1.582546854851393</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.308362109666899</v>
@@ -18599,7 +18335,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.572663749521679</v>
+        <v>1.582087118283202</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.252076010591046</v>
@@ -18688,7 +18424,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.598030448203349</v>
+        <v>1.590591732091738</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.283515581164834</v>
@@ -18777,7 +18513,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.556266974064879</v>
+        <v>1.564886170650557</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.318335372479727</v>
@@ -18866,7 +18602,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.548539426618334</v>
+        <v>1.559071197621607</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.283767556330122</v>
@@ -18955,7 +18691,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.543181043243667</v>
+        <v>1.553473943773731</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.319626891902037</v>
@@ -19044,7 +18780,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.508620927317816</v>
+        <v>1.520845431998093</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.357516163628933</v>
@@ -19133,7 +18869,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.507032613201221</v>
+        <v>1.515172176440349</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.178279486113097</v>
@@ -19222,7 +18958,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.539357310443065</v>
+        <v>1.542289905062625</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.348135581852452</v>
@@ -19508,7 +19244,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.480975337699294</v>
+        <v>1.485350345314907</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.653167119150041</v>
@@ -19597,7 +19333,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.491298378813613</v>
+        <v>1.493103442730438</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.658368713497932</v>
@@ -19686,7 +19422,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.488460835968546</v>
+        <v>1.492432478643898</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.646723667775297</v>
@@ -19775,7 +19511,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.502441780623834</v>
+        <v>1.503380381056506</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.651694669511275</v>
@@ -19864,7 +19600,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.504433712021216</v>
+        <v>1.510394160795078</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.64031503819753</v>
@@ -19953,7 +19689,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.506015471590058</v>
+        <v>1.515540047059447</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.639176488098127</v>
@@ -20042,7 +19778,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.502293067215404</v>
+        <v>1.512753873739108</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.640254079020304</v>
@@ -20131,7 +19867,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.510209162575715</v>
+        <v>1.520628754025628</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.633801009945671</v>
@@ -20220,7 +19956,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.517894848670406</v>
+        <v>1.523781183427605</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.636331515483806</v>
@@ -20309,7 +20045,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.585160698440524</v>
+        <v>1.572160179442091</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.618733982374755</v>
@@ -20398,7 +20134,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.564539938917656</v>
+        <v>1.541166628731612</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.683878014016002</v>
@@ -20487,7 +20223,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.566379042600976</v>
+        <v>1.538461809598627</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.55918266321508</v>
@@ -20576,7 +20312,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.592210158314056</v>
+        <v>1.557450851516037</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.443567180719121</v>
@@ -20665,7 +20401,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.563573410744694</v>
+        <v>1.529342014028527</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.419092246660415</v>
@@ -20754,7 +20490,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.556954755431897</v>
+        <v>1.519296659729202</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.423663415231417</v>
@@ -20843,7 +20579,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.716616628214259</v>
+        <v>1.722780772892099</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.834066336948165</v>
@@ -20932,7 +20668,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.65095243154711</v>
+        <v>1.675134500115984</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.889799471466026</v>
@@ -21021,7 +20757,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.661158425797983</v>
+        <v>1.688325505551715</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.876225775711806</v>
@@ -21110,7 +20846,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.660995490165497</v>
+        <v>1.688412401948298</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.891292003377255</v>
@@ -21199,7 +20935,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.657863864062236</v>
+        <v>1.684377868889629</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.909962574585711</v>
@@ -21288,7 +21024,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.644898788428741</v>
+        <v>1.671005519162378</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.920842022925993</v>
@@ -21377,7 +21113,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.643901638107881</v>
+        <v>1.676250450566114</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.922850037935015</v>
@@ -21466,7 +21202,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.630854846624783</v>
+        <v>1.665310802484884</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.920073202632307</v>
@@ -21555,7 +21291,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.625759566060316</v>
+        <v>1.657788384593997</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.922868892741357</v>
@@ -21644,7 +21380,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.626795525593676</v>
+        <v>1.657315050588982</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.906642853948134</v>
@@ -21733,7 +21469,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.626762783308366</v>
+        <v>1.658358909985752</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.923035629661638</v>
@@ -21822,7 +21558,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.6356133047025</v>
+        <v>1.662475662337475</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.932866101919445</v>
@@ -21911,7 +21647,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.626002148207533</v>
+        <v>1.655039702486731</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.927779717466823</v>
@@ -22000,7 +21736,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.638991756273196</v>
+        <v>1.668476091498646</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.930130559935681</v>
@@ -22089,7 +21825,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.639303949697303</v>
+        <v>1.6714353278444</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.963343808475637</v>
@@ -22178,7 +21914,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.516464360747597</v>
+        <v>1.517163280595464</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.910702819586922</v>
@@ -22267,7 +22003,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.549477605261682</v>
+        <v>1.53340531863152</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.683181824699772</v>
@@ -22356,7 +22092,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.504782099700544</v>
+        <v>1.482145810343482</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.526347446401489</v>
@@ -22445,7 +22181,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.491682814118398</v>
+        <v>1.467545411055369</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.543350597858991</v>
@@ -22534,7 +22270,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.486924239132026</v>
+        <v>1.463693611976084</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.527749676268612</v>
@@ -22623,7 +22359,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.489699363569013</v>
+        <v>1.466858365395849</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.4347854739013</v>
@@ -22712,7 +22448,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.497255721962039</v>
+        <v>1.473075924643496</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.35115599435964</v>
@@ -22801,7 +22537,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.502915284592796</v>
+        <v>1.472168020392914</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.453324702713243</v>
@@ -22890,7 +22626,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.497739084575633</v>
+        <v>1.471055900615103</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.530872658462215</v>
@@ -22979,7 +22715,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.477219432479408</v>
+        <v>1.455519193638697</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.29107894596737</v>
@@ -23068,7 +22804,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.478273019537249</v>
+        <v>1.455304048743106</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.306276634304814</v>
@@ -23157,7 +22893,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.493396772858453</v>
+        <v>1.472180924346176</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.306069546748695</v>
@@ -23246,7 +22982,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.50536328809533</v>
+        <v>1.480619961010184</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.286663511918515</v>
@@ -23335,7 +23071,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.488839340114202</v>
+        <v>1.468968206950185</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.368522684076831</v>
@@ -23424,7 +23160,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.485659868668093</v>
+        <v>1.46436912908979</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.329020224820316</v>
@@ -23513,7 +23249,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.496494349356015</v>
+        <v>1.473279562260692</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.270534876877749</v>
@@ -23602,7 +23338,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.493185564656158</v>
+        <v>1.469116010742533</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.294358231062527</v>
@@ -23691,7 +23427,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.51101897509249</v>
+        <v>1.483734092954315</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.384314656420283</v>
@@ -23780,7 +23516,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.539606819464563</v>
+        <v>1.509047618351305</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.30097964471139</v>
@@ -23869,7 +23605,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.547829002678289</v>
+        <v>1.5209865996057</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.350633540424415</v>
@@ -23958,7 +23694,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.565736367002297</v>
+        <v>1.533475624593678</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.25872697140304</v>
@@ -24047,7 +23783,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.529955639647998</v>
+        <v>1.502003446083033</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.252641258301857</v>
@@ -24136,7 +23872,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.546596818200507</v>
+        <v>1.522477326078324</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.347824196312025</v>
@@ -24225,7 +23961,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.553944767474192</v>
+        <v>1.529807293277556</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.322381740313663</v>
@@ -24314,7 +24050,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.575772760085915</v>
+        <v>1.55544572486209</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.454464201480487</v>
@@ -24403,7 +24139,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.560134075859159</v>
+        <v>1.546174721042656</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.400385624162138</v>
@@ -24492,7 +24228,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.540583259804821</v>
+        <v>1.534879866705653</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.705399394560219</v>
@@ -24581,7 +24317,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.537639191077152</v>
+        <v>1.541126044301019</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.567189102775903</v>
@@ -24670,7 +24406,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.545628289630413</v>
+        <v>1.546412230716344</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.72453172172747</v>
@@ -24759,7 +24495,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.54494092945883</v>
+        <v>1.551352895421841</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.692287465622655</v>
@@ -24848,7 +24584,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.550164604305348</v>
+        <v>1.557128574193514</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.657954320398989</v>
@@ -24937,7 +24673,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.54224033678747</v>
+        <v>1.55562794792828</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.675731976693807</v>
@@ -25026,7 +24762,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.545744443526177</v>
+        <v>1.553964760020046</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.745702294106053</v>
@@ -25115,7 +24851,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.535257263931716</v>
+        <v>1.544058209119379</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.700117267510365</v>
@@ -25204,7 +24940,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.53719013047902</v>
+        <v>1.549219368354396</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.718491839059028</v>
@@ -25293,7 +25029,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.529327768551929</v>
+        <v>1.540118899066091</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.561192980773696</v>
@@ -25382,7 +25118,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.567073731616626</v>
+        <v>1.572348578122913</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.420866808284961</v>
@@ -25471,7 +25207,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.573393811953622</v>
+        <v>1.572590369605765</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.720567418992418</v>
@@ -25560,7 +25296,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.56901214093533</v>
+        <v>1.566370138834218</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.805577778214294</v>
@@ -25649,7 +25385,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.572306140376234</v>
+        <v>1.569030004860918</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.523645308513891</v>
@@ -25738,7 +25474,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.591557135090752</v>
+        <v>1.575106291158972</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.881343140551899</v>
@@ -25827,7 +25563,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.575163731814629</v>
+        <v>1.560827571674036</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.788225252048079</v>
@@ -25916,7 +25652,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.568056459712421</v>
+        <v>1.552328729558864</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.075137044783285</v>
@@ -26005,7 +25741,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.583987596039891</v>
+        <v>1.563934002367298</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.884039047437243</v>
@@ -26094,7 +25830,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.573277492657201</v>
+        <v>1.55663526168991</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.928399503510897</v>
@@ -26183,7 +25919,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.554450395587892</v>
+        <v>1.539377700701885</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.701281791948666</v>
@@ -26272,7 +26008,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.552261191390748</v>
+        <v>1.540525054955331</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.858178055203758</v>
@@ -26361,7 +26097,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.555902598908742</v>
+        <v>1.54963033059875</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.86382614319822</v>
@@ -26450,7 +26186,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.541667102723769</v>
+        <v>1.537539983294747</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.636765019664615</v>
@@ -26539,7 +26275,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.54357702693118</v>
+        <v>1.538892040854814</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.736887647112046</v>
@@ -26628,7 +26364,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.543107542667643</v>
+        <v>1.535021847860216</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.743425550244411</v>
@@ -26717,7 +26453,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.532304521378787</v>
+        <v>1.532635955872911</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.801749809532954</v>
@@ -26806,7 +26542,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.546246974504332</v>
+        <v>1.552004373769949</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.663487872016983</v>
@@ -26895,7 +26631,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.549847316509227</v>
+        <v>1.55453273891622</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.840063374001335</v>
@@ -26984,7 +26720,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.544377919088549</v>
+        <v>1.55112608353638</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.696711349937146</v>
@@ -27073,7 +26809,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.537591867736424</v>
+        <v>1.552154951926745</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.537796769384328</v>
@@ -27162,7 +26898,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.532597599220779</v>
+        <v>1.543885702728392</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.758414496593929</v>
@@ -27448,7 +27184,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.78394882468552</v>
+        <v>1.768396722510772</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.056203441608531</v>
@@ -27537,7 +27273,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.786216606761847</v>
+        <v>1.770173428318091</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.052208380783797</v>
@@ -27626,7 +27362,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.783967666688793</v>
+        <v>1.76589905760231</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.068148008747781</v>
@@ -27715,7 +27451,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.78313239252696</v>
+        <v>1.768628116707732</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.03877900734666</v>
@@ -27804,7 +27540,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.784489803722985</v>
+        <v>1.76860930743915</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.027689693127525</v>
@@ -27893,7 +27629,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.781485824576646</v>
+        <v>1.761093803263553</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.049188284012728</v>
@@ -27982,7 +27718,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.782819831960317</v>
+        <v>1.762324705656135</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.030121109382426</v>
@@ -28071,7 +27807,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.785036816763875</v>
+        <v>1.763374619331081</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.050114619385605</v>
@@ -28160,7 +27896,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.792313276151776</v>
+        <v>1.768475604292576</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.07370676121832</v>
@@ -28249,7 +27985,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.846593688235075</v>
+        <v>1.807171105599396</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.017852003502632</v>
@@ -28338,7 +28074,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.801282224309663</v>
+        <v>1.739167883612446</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.827744625453536</v>
@@ -28427,7 +28163,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.793500839767155</v>
+        <v>1.734736550818113</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.984569214348396</v>
@@ -28516,7 +28252,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.795671362933811</v>
+        <v>1.736510717390104</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.82656139668451</v>
@@ -28605,7 +28341,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.795255140468055</v>
+        <v>1.723856465087769</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.647230940101458</v>
@@ -28694,7 +28430,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.785312692377434</v>
+        <v>1.71463048469825</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.809642614310745</v>
@@ -28783,7 +28519,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.896465453111054</v>
+        <v>1.856737688970922</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.20677229505662</v>
@@ -28872,7 +28608,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.863245409659057</v>
+        <v>1.840698835198596</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.242587945650867</v>
@@ -28961,7 +28697,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.867463242129258</v>
+        <v>1.849475427235881</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.227555694200425</v>
@@ -29050,7 +28786,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.863937580556991</v>
+        <v>1.845555142753735</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.266041255830601</v>
@@ -29139,7 +28875,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.857957356524535</v>
+        <v>1.842960983670483</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.274707532405945</v>
@@ -29228,7 +28964,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.849158672466882</v>
+        <v>1.836157651045474</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.268075306662205</v>
@@ -29317,7 +29053,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.843102286501422</v>
+        <v>1.834944281071955</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.241430106519356</v>
@@ -29406,7 +29142,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.846253646857537</v>
+        <v>1.838891525246852</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.26414820885589</v>
@@ -29495,7 +29231,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.842690817307495</v>
+        <v>1.834206430555657</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.261225848261042</v>
@@ -29584,7 +29320,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.841060313319518</v>
+        <v>1.830060130211423</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.260070860350445</v>
@@ -29673,7 +29409,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.845189093437579</v>
+        <v>1.837232787334021</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.282098895380897</v>
@@ -29762,7 +29498,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.842949527111085</v>
+        <v>1.828796809294985</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.248015833762572</v>
@@ -29851,7 +29587,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.83951979241843</v>
+        <v>1.823335456622903</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.285716665723881</v>
@@ -29940,7 +29676,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.839324420052169</v>
+        <v>1.829412038135395</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.280637265220687</v>
@@ -30029,7 +29765,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.844454926307632</v>
+        <v>1.834135324245275</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.273983325322173</v>
@@ -30118,7 +29854,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.775907089802433</v>
+        <v>1.733663828686493</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.265424013069367</v>
@@ -30207,7 +29943,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.764608922037378</v>
+        <v>1.716456497677503</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.74145999169197</v>
@@ -30296,7 +30032,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.741343135785722</v>
+        <v>1.69147816654847</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.513574193797472</v>
@@ -30385,7 +30121,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.72219225075855</v>
+        <v>1.669648466253252</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.491663531216711</v>
@@ -30474,7 +30210,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.722612941619668</v>
+        <v>1.66543603641388</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.419239256398744</v>
@@ -30563,7 +30299,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.725536510597463</v>
+        <v>1.667556722903768</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.415832192879444</v>
@@ -30652,7 +30388,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.743129167376749</v>
+        <v>1.677944063817504</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.554370849699301</v>
@@ -30741,7 +30477,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.732605975489031</v>
+        <v>1.669406970076486</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.425973579990611</v>
@@ -30830,7 +30566,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.734571515790132</v>
+        <v>1.669968177549032</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.267049873002291</v>
@@ -30919,7 +30655,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.739902657537733</v>
+        <v>1.673667992684405</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.444534910344792</v>
@@ -31008,7 +30744,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.739078091637484</v>
+        <v>1.675151751691581</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.683469204583163</v>
@@ -31097,7 +30833,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.744120835356237</v>
+        <v>1.683776824164976</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.328493119514051</v>
@@ -31186,7 +30922,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.747147429056561</v>
+        <v>1.692322213954236</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.446202084472522</v>
@@ -31275,7 +31011,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.746299588658794</v>
+        <v>1.692772991196041</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.438175836496026</v>
@@ -31364,7 +31100,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.740988602901282</v>
+        <v>1.690698007344366</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.015992723823703</v>
@@ -31453,7 +31189,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.735121424822444</v>
+        <v>1.686257350938541</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.726573970860053</v>
@@ -31542,7 +31278,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.73131142751492</v>
+        <v>1.679805006587866</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.689225447666601</v>
@@ -31631,7 +31367,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.727613292345356</v>
+        <v>1.680496233188068</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.062620697094332</v>
@@ -31720,7 +31456,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.741858752736073</v>
+        <v>1.697068791225348</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.464393799593942</v>
@@ -31809,7 +31545,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.750065485759705</v>
+        <v>1.70704153196047</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.767146486060152</v>
@@ -31898,7 +31634,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.757408083351136</v>
+        <v>1.709350811659034</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.579757118021246</v>
@@ -31987,7 +31723,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.750090082195463</v>
+        <v>1.707892865070108</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.616872860067796</v>
@@ -32076,7 +31812,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.748552234709426</v>
+        <v>1.709712763800968</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.936322734379169</v>
@@ -32165,7 +31901,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.744214835690963</v>
+        <v>1.704254150407381</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.320916585575175</v>
@@ -32254,7 +31990,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.74763041819935</v>
+        <v>1.711003428639043</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.228095745575819</v>
@@ -32343,7 +32079,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.752269329894093</v>
+        <v>1.712840189746962</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.882812940714741</v>
@@ -32432,7 +32168,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.750658373329824</v>
+        <v>1.712514273170248</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.160645028446095</v>
@@ -32521,7 +32257,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.745780965206958</v>
+        <v>1.712085613999929</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.261981220829466</v>
@@ -32610,7 +32346,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.736517443648241</v>
+        <v>1.700884175505546</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.138091159718818</v>
@@ -32699,7 +32435,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.740571656182172</v>
+        <v>1.70446907118078</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.736034157981332</v>
@@ -32788,7 +32524,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.74044244819063</v>
+        <v>1.703776757154856</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.215269222614976</v>
@@ -32877,7 +32613,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.733805792875925</v>
+        <v>1.706034617076654</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.04476953471395</v>
@@ -32966,7 +32702,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.745104868696227</v>
+        <v>1.711324951853752</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.779351422597308</v>
@@ -33055,7 +32791,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.734077229501152</v>
+        <v>1.703129293227644</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.117497584914236</v>
@@ -33144,7 +32880,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.730801384989886</v>
+        <v>1.700354026658808</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.867339449976747</v>
@@ -33233,7 +32969,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.731792329669496</v>
+        <v>1.703938621972064</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.122408882175379</v>
@@ -33322,7 +33058,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.73769617577091</v>
+        <v>1.706018645572505</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.122905865488404</v>
@@ -33411,7 +33147,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.741043479186144</v>
+        <v>1.700384154750036</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.548284310035996</v>
@@ -33500,7 +33236,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.747740937151284</v>
+        <v>1.702865924184668</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.941766177529372</v>
@@ -33589,7 +33325,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.733265811077296</v>
+        <v>1.687759880481333</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.731762714469324</v>
@@ -33678,7 +33414,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.732694933664179</v>
+        <v>1.687312443045117</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.410394930636207</v>
@@ -33767,7 +33503,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.739231652945122</v>
+        <v>1.697611632455068</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.802814302958748</v>
@@ -33856,7 +33592,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.732998381412008</v>
+        <v>1.687035924526461</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.439922634797613</v>
@@ -33945,7 +33681,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.743154383237919</v>
+        <v>1.695210903221143</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.627613246889565</v>
@@ -34034,7 +33770,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.733671397308413</v>
+        <v>1.693607927303326</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.573513524875789</v>
@@ -34123,7 +33859,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.732870369939811</v>
+        <v>1.692360585706137</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.852140628273048</v>
@@ -34212,7 +33948,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.735399510564411</v>
+        <v>1.690707368135754</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.551392137584233</v>
@@ -34301,7 +34037,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.744943579101718</v>
+        <v>1.696837808664987</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.424283927560229</v>
@@ -34390,7 +34126,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.753090582127403</v>
+        <v>1.707457475014057</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.784765810556306</v>
@@ -34479,7 +34215,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.756536576755529</v>
+        <v>1.710323233726041</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.443469550696381</v>
@@ -34568,7 +34304,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.750607642410508</v>
+        <v>1.705237158308252</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.947571825995542</v>
@@ -34657,7 +34393,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.75289543316227</v>
+        <v>1.709648423035383</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.647058667025972</v>
@@ -34746,7 +34482,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.75414333189306</v>
+        <v>1.716346202068477</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.895788755204175</v>
@@ -34835,7 +34571,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.749811993450527</v>
+        <v>1.710752149503633</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.272960317769672</v>
@@ -34924,7 +34660,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.762578467237576</v>
+        <v>1.725540395113212</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>4.313802817289212</v>
@@ -35013,7 +34749,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.754568533355034</v>
+        <v>1.720822770285144</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>4.34226652253637</v>
@@ -35102,7 +34838,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.751479175041917</v>
+        <v>1.712146816211417</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.873675074277406</v>
@@ -35388,7 +35124,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.645103289193565</v>
+        <v>1.656484707313189</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.949913405481809</v>
@@ -35477,7 +35213,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.651655795052398</v>
+        <v>1.658173166911648</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.957562645339197</v>
@@ -35566,7 +35302,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.65244147086855</v>
+        <v>1.660564679785648</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.941952583310115</v>
@@ -35655,7 +35391,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.6624895383384</v>
+        <v>1.665204393769243</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.950701412925873</v>
@@ -35744,7 +35480,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.66692021637752</v>
+        <v>1.672407141763747</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.926790876016821</v>
@@ -35833,7 +35569,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.672339227153031</v>
+        <v>1.673572924783828</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.941312786696354</v>
@@ -35922,7 +35658,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.672553470957304</v>
+        <v>1.672131853072033</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.943488654254809</v>
@@ -36011,7 +35747,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.665838428658607</v>
+        <v>1.666874282921251</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.942211296026639</v>
@@ -36100,7 +35836,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.675011661601859</v>
+        <v>1.675868812266362</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.94720107296345</v>
@@ -36189,7 +35925,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.739201092088241</v>
+        <v>1.716077628775423</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.948952273239104</v>
@@ -36278,7 +36014,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.765231553702141</v>
+        <v>1.731823604621537</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.624727534808197</v>
@@ -36367,7 +36103,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.762707345072281</v>
+        <v>1.727042482752131</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.004148407592042</v>
@@ -36456,7 +36192,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.772322335871304</v>
+        <v>1.737781857336676</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.255088451865887</v>
@@ -36545,7 +36281,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.761392204902755</v>
+        <v>1.724126718458457</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.776868007864168</v>
@@ -36634,7 +36370,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.754972972223775</v>
+        <v>1.719316948902461</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.493651558755339</v>
@@ -36723,7 +36459,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.826995929847461</v>
+        <v>1.813423631438281</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.098575223136219</v>
@@ -36812,7 +36548,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.797329072311108</v>
+        <v>1.806065431558652</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.169396384804646</v>
@@ -36901,7 +36637,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.799776604003678</v>
+        <v>1.812814113933823</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.149901163176653</v>
@@ -36990,7 +36726,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.797125645412408</v>
+        <v>1.811779444330434</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.151652429231628</v>
@@ -37079,7 +36815,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.788568435198338</v>
+        <v>1.807869591405282</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.206102424090085</v>
@@ -37168,7 +36904,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.775326662459671</v>
+        <v>1.797514390178796</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.192712977996438</v>
@@ -37257,7 +36993,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.778848469642009</v>
+        <v>1.798103999971774</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.215444944054261</v>
@@ -37346,7 +37082,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.77319060172845</v>
+        <v>1.793261394817533</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.164892776145843</v>
@@ -37435,7 +37171,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.76572234645622</v>
+        <v>1.787565318120453</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.180764577339553</v>
@@ -37524,7 +37260,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.756991212356845</v>
+        <v>1.780205494164447</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.181169041566142</v>
@@ -37613,7 +37349,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.753693136628695</v>
+        <v>1.778468278914449</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.189579526586818</v>
@@ -37702,7 +37438,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.753723838573136</v>
+        <v>1.77836222560176</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.208308469291982</v>
@@ -37791,7 +37527,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.747935048810289</v>
+        <v>1.771085621306826</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.189043080134145</v>
@@ -37880,7 +37616,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.744751868385534</v>
+        <v>1.771412200391084</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.182436702586315</v>
@@ -37969,7 +37705,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.743730473964246</v>
+        <v>1.769906783918854</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.231500736065423</v>
@@ -38058,7 +37794,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.683289577946561</v>
+        <v>1.693113813233385</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.273655395424723</v>
@@ -38147,7 +37883,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.66696024258908</v>
+        <v>1.66790477483512</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.289311151955877</v>
@@ -38236,7 +37972,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.654140582969795</v>
+        <v>1.65051898034069</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.478975491639313</v>
@@ -38325,7 +38061,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.643786832659337</v>
+        <v>1.639917801532851</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.43850378073975</v>
@@ -38414,7 +38150,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.647424098544119</v>
+        <v>1.643644961860682</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.341561436503419</v>
@@ -38503,7 +38239,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.657303905705694</v>
+        <v>1.650720044207848</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.133344545840106</v>
@@ -38592,7 +38328,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.645294241132981</v>
+        <v>1.641736171627118</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.491951811616416</v>
@@ -38681,7 +38417,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.654697680627059</v>
+        <v>1.647217727749132</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.696640320337827</v>
@@ -38770,7 +38506,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.661340635938108</v>
+        <v>1.654045061134008</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.728646823504362</v>
@@ -38859,7 +38595,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.655087502428234</v>
+        <v>1.647814879702047</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.434062806308259</v>
@@ -38948,7 +38684,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.652282166550147</v>
+        <v>1.645573217447341</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.787532952181934</v>
@@ -39037,7 +38773,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.657843473015447</v>
+        <v>1.652798666245474</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.70237045922417</v>
@@ -39126,7 +38862,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.666462815546557</v>
+        <v>1.664813486504135</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.778391366922285</v>
@@ -39215,7 +38951,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.675523262778668</v>
+        <v>1.673832842009477</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.424784214550866</v>
@@ -39304,7 +39040,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679907411259772</v>
+        <v>1.673167764035468</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.731064365839852</v>
@@ -39393,7 +39129,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.678530949535638</v>
+        <v>1.670882034702738</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.814309880058975</v>
@@ -39482,7 +39218,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.679720247958162</v>
+        <v>1.674635968125251</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.499256900554116</v>
@@ -39571,7 +39307,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.678206566748755</v>
+        <v>1.67166759891986</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.062245938527641</v>
@@ -39660,7 +39396,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.695180747280822</v>
+        <v>1.685339642589395</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.285019809022488</v>
@@ -39749,7 +39485,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.689634077817419</v>
+        <v>1.681961073653664</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.743123355853372</v>
@@ -39838,7 +39574,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.694667443536437</v>
+        <v>1.688439372649416</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.593710947559139</v>
@@ -39927,7 +39663,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.699639855134962</v>
+        <v>1.693996702025367</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.417668623169919</v>
@@ -40016,7 +39752,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.705545554390587</v>
+        <v>1.702843969378871</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.065265324550925</v>
@@ -40105,7 +39841,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.708738034493826</v>
+        <v>1.702267069469665</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.639570726202029</v>
@@ -40194,7 +39930,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.720884896103362</v>
+        <v>1.711659516680659</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.709503744114461</v>
@@ -40283,7 +40019,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.717402084878103</v>
+        <v>1.71028157048909</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.283884304548712</v>
@@ -40372,7 +40108,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.718200109409453</v>
+        <v>1.71207376263598</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.848961846425604</v>
@@ -40461,7 +40197,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.710676916110938</v>
+        <v>1.704120341115199</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.123733131691641</v>
@@ -40550,7 +40286,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.714875538687165</v>
+        <v>1.708402492611089</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.711819215708987</v>
@@ -40639,7 +40375,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.714957355085591</v>
+        <v>1.709414837199764</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.752782914340394</v>
@@ -40728,7 +40464,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.722530021324084</v>
+        <v>1.719352018559009</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.373765141818382</v>
@@ -40817,7 +40553,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.72975600833057</v>
+        <v>1.724490425948064</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.912757042847967</v>
@@ -40906,7 +40642,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.732001595825478</v>
+        <v>1.728273967591091</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.856714032118155</v>
@@ -40995,7 +40731,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.733312359711825</v>
+        <v>1.728952903066701</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.197973147352333</v>
@@ -41084,7 +40820,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.737799757907367</v>
+        <v>1.728928684194658</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.333286420202289</v>
@@ -41173,7 +40909,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.739003433249734</v>
+        <v>1.73121795131277</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.833539116919049</v>
@@ -41262,7 +40998,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.754729478092437</v>
+        <v>1.74095958088868</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.366610513054304</v>
@@ -41351,7 +41087,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.750526621047513</v>
+        <v>1.732580738387214</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.53707165673613</v>
@@ -41440,7 +41176,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.743943820355446</v>
+        <v>1.733172544630851</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.769751013099665</v>
@@ -41529,7 +41265,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.757225503809082</v>
+        <v>1.742074698188257</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.598119883920381</v>
@@ -41618,7 +41354,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.767597779473918</v>
+        <v>1.744878915340695</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.665309409390641</v>
@@ -41707,7 +41443,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.760202056438818</v>
+        <v>1.735601232119314</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.214221331670002</v>
@@ -41796,7 +41532,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.771798309078165</v>
+        <v>1.739352020327921</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>4.336782149244212</v>
@@ -41885,7 +41621,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.771071842660138</v>
+        <v>1.744348335201761</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>4.299331734425283</v>
@@ -41974,7 +41710,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.762105704477621</v>
+        <v>1.740892882836741</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.85680689683887</v>
@@ -42063,7 +41799,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.746321555129404</v>
+        <v>1.723323518369783</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.686119299045243</v>
@@ -42152,7 +41888,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.736671963557119</v>
+        <v>1.715254039486781</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.631768690607062</v>
@@ -42241,7 +41977,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.751770452390169</v>
+        <v>1.725911646538723</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.390372939612882</v>
@@ -42330,7 +42066,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.743115241126557</v>
+        <v>1.721836192827339</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.720181488910394</v>
@@ -42419,7 +42155,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.740620178632749</v>
+        <v>1.72001732447625</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.459413065510228</v>
@@ -42508,7 +42244,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.733946108620195</v>
+        <v>1.710552041066246</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.314937682572189</v>
@@ -42597,7 +42333,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.720496924332426</v>
+        <v>1.706732601061646</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.656484242922858</v>
@@ -42686,7 +42422,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.72533213907887</v>
+        <v>1.711350476275204</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.53661103548575</v>
@@ -42775,7 +42511,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.726576435017244</v>
+        <v>1.70957947002796</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.516480358840466</v>
@@ -42864,7 +42600,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.712101284450772</v>
+        <v>1.699798769614224</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.244754155204622</v>
@@ -42953,7 +42689,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.71438277810894</v>
+        <v>1.70524755397239</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.345135635657346</v>
@@ -43042,7 +42778,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.71542059127048</v>
+        <v>1.707435902245797</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.735958816505204</v>
@@ -43328,7 +43064,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.415449823976103</v>
+        <v>1.429460309899629</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.845039616968563</v>
@@ -43417,7 +43153,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.427363877108005</v>
+        <v>1.439269467403822</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.852103179062331</v>
@@ -43506,7 +43242,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.419242318524533</v>
+        <v>1.429980290041156</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.847155678520401</v>
@@ -43595,7 +43331,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.436017872916991</v>
+        <v>1.443675506380893</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.838183311478195</v>
@@ -43684,7 +43420,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.440492239355597</v>
+        <v>1.44987847918854</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.810073859276022</v>
@@ -43773,7 +43509,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.441967202107801</v>
+        <v>1.451069885198289</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.831295244637524</v>
@@ -43862,7 +43598,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.420004008027319</v>
+        <v>1.423732693815491</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.85144413512869</v>
@@ -43951,7 +43687,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.41013174143859</v>
+        <v>1.42340501018997</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.824483592050338</v>
@@ -44040,7 +43776,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.41636644604521</v>
+        <v>1.425453056342149</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.821481276693199</v>
@@ -44129,7 +43865,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.449952576353854</v>
+        <v>1.448981720178188</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.593904624851114</v>
@@ -44218,7 +43954,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.468598129726757</v>
+        <v>1.466868009048542</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.24658153517207</v>
@@ -44307,7 +44043,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.466315817196911</v>
+        <v>1.465314608569356</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.300899815321195</v>
@@ -44396,7 +44132,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.476872968321075</v>
+        <v>1.477408421915604</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.326994520055604</v>
@@ -44485,7 +44221,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.456301341156503</v>
+        <v>1.450798858450311</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.29422037061333</v>
@@ -44574,7 +44310,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.452429499778999</v>
+        <v>1.443920711109429</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.131439891386921</v>
@@ -44663,7 +44399,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.563655116482929</v>
+        <v>1.574493416313441</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.88008279952715</v>
@@ -44752,7 +44488,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.577882683270436</v>
+        <v>1.594947456315112</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.928499730547556</v>
@@ -44841,7 +44577,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5918575429515</v>
+        <v>1.609865775524969</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.934999849406314</v>
@@ -44930,7 +44666,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.596647722066183</v>
+        <v>1.610579235601631</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.963589056674872</v>
@@ -45019,7 +44755,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589328963095786</v>
+        <v>1.604008205673837</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.940710453340667</v>
@@ -45108,7 +44844,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.581730879832568</v>
+        <v>1.595719554797525</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.948549980403862</v>
@@ -45197,7 +44933,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.609840821409277</v>
+        <v>1.625571640356226</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.903948495002105</v>
@@ -45286,7 +45022,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.593805961383106</v>
+        <v>1.60902003344457</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.961782355441837</v>
@@ -45375,7 +45111,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.580479358084634</v>
+        <v>1.592165309822785</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.953819611427162</v>
@@ -45464,7 +45200,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573703135167526</v>
+        <v>1.587745944137913</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.967595370210941</v>
@@ -45553,7 +45289,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.577112468716388</v>
+        <v>1.589707089784932</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.991231837454418</v>
@@ -45642,7 +45378,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.585792470723862</v>
+        <v>1.592734863021025</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.96689047421253</v>
@@ -45731,7 +45467,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.572337057817235</v>
+        <v>1.578873314004322</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.973922602988471</v>
@@ -45820,7 +45556,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.583397897947419</v>
+        <v>1.591020162033579</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.976228259638347</v>
@@ -45909,7 +45645,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.587789654269324</v>
+        <v>1.597282133416584</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.917799392109987</v>
@@ -45998,7 +45734,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.525512317893372</v>
+        <v>1.513936976692484</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.438702414563504</v>
@@ -46087,7 +45823,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.478371669195646</v>
+        <v>1.460937820599713</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.314386340957516</v>
@@ -46176,7 +45912,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.43809774016037</v>
+        <v>1.418989149410997</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.408866138776966</v>
@@ -46265,7 +46001,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.413841784136089</v>
+        <v>1.393290672424261</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.216088059975813</v>
@@ -46354,7 +46090,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.411130286647558</v>
+        <v>1.389392510789418</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.293400108610215</v>
@@ -46443,7 +46179,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.411605643491921</v>
+        <v>1.390580651096518</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.212680696773365</v>
@@ -46532,7 +46268,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.419594233387271</v>
+        <v>1.394145169586794</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.301714085165819</v>
@@ -46621,7 +46357,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.435603625322174</v>
+        <v>1.406013983628426</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.283471708839394</v>
@@ -46710,7 +46446,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.449684452260282</v>
+        <v>1.424503061611088</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.374467273558873</v>
@@ -46799,7 +46535,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.442708972840798</v>
+        <v>1.415411574847407</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.288866469902048</v>
@@ -46888,7 +46624,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.446932316682154</v>
+        <v>1.421264460313107</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.29298416520442</v>
@@ -46977,7 +46713,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.467447761867708</v>
+        <v>1.438955915591959</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.123733898644156</v>
@@ -47066,7 +46802,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.47682839380785</v>
+        <v>1.455271997828478</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.221821238225189</v>
@@ -47155,7 +46891,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.456792024722809</v>
+        <v>1.437299348707061</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.301063862823096</v>
@@ -47244,7 +46980,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.456138879085852</v>
+        <v>1.433693334908276</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.370618936337582</v>
@@ -47333,7 +47069,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.470651753859261</v>
+        <v>1.44750032063879</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.227570971643651</v>
@@ -47422,7 +47158,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.470128683874488</v>
+        <v>1.450429637686292</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.213827910821564</v>
@@ -47511,7 +47247,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.494278469013085</v>
+        <v>1.474341062829378</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.035040949626703</v>
@@ -47600,7 +47336,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.527767976811487</v>
+        <v>1.507682587498768</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.336099418619251</v>
@@ -47689,7 +47425,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.540187307451843</v>
+        <v>1.521929712120047</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.358773358266102</v>
@@ -47778,7 +47514,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.5466855691199</v>
+        <v>1.526521571888736</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.407708516284084</v>
@@ -47867,7 +47603,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.51346228167335</v>
+        <v>1.499544977097602</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.454704319501722</v>
@@ -47956,7 +47692,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.535554942591425</v>
+        <v>1.518275091229853</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.224628956896392</v>
@@ -48045,7 +47781,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.536232559269456</v>
+        <v>1.519090758822964</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.459222901980727</v>
@@ -48134,7 +47870,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.546400249696713</v>
+        <v>1.529644353095042</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.382161080021814</v>
@@ -48223,7 +47959,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.519938397846859</v>
+        <v>1.50626132634439</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.519569965306464</v>
@@ -48312,7 +48048,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.508819903469667</v>
+        <v>1.502900926653529</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.375099345679246</v>
@@ -48401,7 +48137,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.502871970130322</v>
+        <v>1.499506751594367</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.318894434292741</v>
@@ -48490,7 +48226,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.515615623452184</v>
+        <v>1.512037957989561</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.463238703375922</v>
@@ -48579,7 +48315,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.505933218081494</v>
+        <v>1.50695193262537</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.565954126027088</v>
@@ -48668,7 +48404,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.508316190222244</v>
+        <v>1.507358285046294</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.478490116650347</v>
@@ -48757,7 +48493,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.496401867104374</v>
+        <v>1.495863707773679</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.473089463964893</v>
@@ -48846,7 +48582,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.468452921463302</v>
+        <v>1.468479125621764</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.206863085647679</v>
@@ -48935,7 +48671,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.45266292466453</v>
+        <v>1.458318356508895</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.220301085384095</v>
@@ -49024,7 +48760,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.456872527994853</v>
+        <v>1.461694343028155</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.193553905132492</v>
@@ -49113,7 +48849,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.449335386288218</v>
+        <v>1.45605650310138</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.166938009337888</v>
@@ -49202,7 +48938,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.487059391029665</v>
+        <v>1.489363361505236</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.955982950599325</v>
@@ -49291,7 +49027,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.479411438520835</v>
+        <v>1.475063254736458</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.191994599911956</v>
@@ -49380,7 +49116,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.477554130198332</v>
+        <v>1.472452761516445</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.178051419044265</v>
@@ -49469,7 +49205,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.482073885610511</v>
+        <v>1.479783879168693</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.119494044577736</v>
@@ -49558,7 +49294,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.500339259593621</v>
+        <v>1.497457634380408</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.192640489850282</v>
@@ -49647,7 +49383,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.486749035132139</v>
+        <v>1.482949958687791</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.164595725628152</v>
@@ -49736,7 +49472,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.489607517857309</v>
+        <v>1.484835665919067</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.205602969902445</v>
@@ -49825,7 +49561,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.506769089299387</v>
+        <v>1.50067041285286</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.162289335918913</v>
@@ -49914,7 +49650,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.510230356147885</v>
+        <v>1.500923227478122</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.158467665998265</v>
@@ -50003,7 +49739,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.499097914180556</v>
+        <v>1.493147087107496</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.140395478015396</v>
@@ -50092,7 +49828,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.499819313073161</v>
+        <v>1.495054008920706</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.144107834635805</v>
@@ -50181,7 +49917,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.541476270176839</v>
+        <v>1.535727817711516</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.774695002329354</v>
@@ -50270,7 +50006,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.528489639536406</v>
+        <v>1.519364144214173</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.401757484826433</v>
@@ -50359,7 +50095,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.534423210081569</v>
+        <v>1.526155572130454</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.433134576776873</v>
@@ -50448,7 +50184,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.536660254213323</v>
+        <v>1.523570472953422</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.603219859061792</v>
@@ -50537,7 +50273,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.520974965428827</v>
+        <v>1.519362913103411</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.632043562038895</v>
@@ -50626,7 +50362,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.531531079024612</v>
+        <v>1.535517024550111</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.527717609395433</v>
@@ -50715,7 +50451,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.53204243628229</v>
+        <v>1.536057158995448</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.535723896512794</v>
@@ -50804,7 +50540,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.529261542816543</v>
+        <v>1.531614894077471</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.655678234295693</v>
@@ -50893,7 +50629,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.525850403780035</v>
+        <v>1.530815876049725</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.426572986864787</v>
@@ -50982,7 +50718,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.532036308100851</v>
+        <v>1.533559270881504</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.605076467382272</v>
@@ -51268,7 +51004,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.50218976752314</v>
+        <v>1.506803105686941</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.852191986680922</v>
@@ -51357,7 +51093,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.515090349533976</v>
+        <v>1.518079013021984</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.859137924044237</v>
@@ -51446,7 +51182,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.508518907959414</v>
+        <v>1.511681382763767</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.853988786216461</v>
@@ -51535,7 +51271,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.529432515384896</v>
+        <v>1.528831680412585</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.855411533517327</v>
@@ -51624,7 +51360,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.532819095246856</v>
+        <v>1.530683584040425</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.836860320675641</v>
@@ -51713,7 +51449,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.530212644186963</v>
+        <v>1.525711487820053</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.832549699650644</v>
@@ -51802,7 +51538,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.513448118815588</v>
+        <v>1.507653226322627</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.841022682796462</v>
@@ -51891,7 +51627,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.508298625453248</v>
+        <v>1.5089871612141</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.820915269137542</v>
@@ -51980,7 +51716,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.528251112706474</v>
+        <v>1.523487099894896</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.800442828260002</v>
@@ -52069,7 +51805,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.562326951710868</v>
+        <v>1.549952005924098</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.833595410460116</v>
@@ -52158,7 +51894,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.614000385922844</v>
+        <v>1.609547811164352</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.360176632956328</v>
@@ -52247,7 +51983,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.615772132825919</v>
+        <v>1.612547166672988</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.622926025086266</v>
@@ -52336,7 +52072,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.642265680943804</v>
+        <v>1.636178408560756</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.52968888388803</v>
@@ -52425,7 +52161,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.630246096935363</v>
+        <v>1.624867292256273</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.579533264601467</v>
@@ -52514,7 +52250,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.629370584428084</v>
+        <v>1.623794171813662</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.44784871574614</v>
@@ -52603,7 +52339,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.645749637944447</v>
+        <v>1.647478706113247</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.282751318342058</v>
@@ -52692,7 +52428,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.600127832770144</v>
+        <v>1.611314341384991</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.266361497657217</v>
@@ -52781,7 +52517,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606977212842878</v>
+        <v>1.619545807924745</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.267407920496854</v>
@@ -52870,7 +52606,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.598421743634474</v>
+        <v>1.60970105283824</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.295173188574345</v>
@@ -52959,7 +52695,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.592333466161516</v>
+        <v>1.603996196704822</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.305199636262162</v>
@@ -53048,7 +52784,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.589096637637687</v>
+        <v>1.601245553756987</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.306246459486993</v>
@@ -53137,7 +52873,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.619299176719913</v>
+        <v>1.631587662638934</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.256108101732778</v>
@@ -53226,7 +52962,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.600920878078049</v>
+        <v>1.613176050589061</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.283425671389955</v>
@@ -53315,7 +53051,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.594591679896887</v>
+        <v>1.60427684710782</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.299331123535425</v>
@@ -53404,7 +53140,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.576690540928726</v>
+        <v>1.589037398956662</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.256514848688535</v>
@@ -53493,7 +53229,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.576823630748259</v>
+        <v>1.58455249992862</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.241359923152614</v>
@@ -53582,7 +53318,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.587822845818925</v>
+        <v>1.591789061099418</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.265442066783345</v>
@@ -53671,7 +53407,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.572329166670253</v>
+        <v>1.578232420794593</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.285109976625627</v>
@@ -53760,7 +53496,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.577699461122138</v>
+        <v>1.58219382402852</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.270158068771922</v>
@@ -53849,7 +53585,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.581771624523617</v>
+        <v>1.588733064229225</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.318717693515142</v>
@@ -53938,7 +53674,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.567311766503934</v>
+        <v>1.560821394601234</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.008954966233772</v>
@@ -54027,7 +53763,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.591064887895947</v>
+        <v>1.573306171771166</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.627099184901133</v>
@@ -54116,7 +53852,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.577678950447186</v>
+        <v>1.560528471052916</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.368459706052509</v>
@@ -54205,7 +53941,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.578069573617002</v>
+        <v>1.56344978540107</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.458147957513297</v>
@@ -54294,7 +54030,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.581964337233713</v>
+        <v>1.562820860164203</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.49882910748969</v>
@@ -54383,7 +54119,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.575499713382779</v>
+        <v>1.558702034740607</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.530506856650597</v>
@@ -54472,7 +54208,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.58131700597854</v>
+        <v>1.559403494205672</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.523039825404612</v>
@@ -54561,7 +54297,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.616279107377486</v>
+        <v>1.584480725882117</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.54858743617589</v>
@@ -54650,7 +54386,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.619632623044903</v>
+        <v>1.591389276399516</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.640110391698696</v>
@@ -54739,7 +54475,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.612251722746944</v>
+        <v>1.588094680007237</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.581036065609065</v>
@@ -54828,7 +54564,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.613658766406948</v>
+        <v>1.588081830053627</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.621618346374129</v>
@@ -54917,7 +54653,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.628075078929067</v>
+        <v>1.598975302415469</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.302158274178459</v>
@@ -55006,7 +54742,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.645041694857842</v>
+        <v>1.619509073693195</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.462096336128037</v>
@@ -55095,7 +54831,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.621246911816133</v>
+        <v>1.598348326303064</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.60199938647678</v>
@@ -55184,7 +54920,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.612198469986966</v>
+        <v>1.587321698726299</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.456661957124358</v>
@@ -55273,7 +55009,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.627575877495815</v>
+        <v>1.596732164984442</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.443091969736745</v>
@@ -55362,7 +55098,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.634764212108945</v>
+        <v>1.605469918935742</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.424679607971178</v>
@@ -55451,7 +55187,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.641844989639177</v>
+        <v>1.611603306933233</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.343061501525833</v>
@@ -55540,7 +55276,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.660509529513642</v>
+        <v>1.625155782162839</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.563082222675697</v>
@@ -55629,7 +55365,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.661871338681411</v>
+        <v>1.632285027296455</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.540144303243505</v>
@@ -55718,7 +55454,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.675100830732917</v>
+        <v>1.644824442016819</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.60979848025541</v>
@@ -55807,7 +55543,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.617312122117873</v>
+        <v>1.597441009831539</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.414631500208433</v>
@@ -55896,7 +55632,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.628644157887407</v>
+        <v>1.608371893422911</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.385981171739959</v>
@@ -55985,7 +55721,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.62122999376927</v>
+        <v>1.604336287668367</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.537178553940911</v>
@@ -56074,7 +55810,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.628300550844129</v>
+        <v>1.61105620531217</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.653370057773927</v>
@@ -56163,7 +55899,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.600613423314991</v>
+        <v>1.593884915359856</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.571240902438264</v>
@@ -56252,7 +55988,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.58220630986668</v>
+        <v>1.580066003642386</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.565130009561077</v>
@@ -56341,7 +56077,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.57490489755887</v>
+        <v>1.570299721591673</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.538049366692486</v>
@@ -56430,7 +56166,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.601106214045338</v>
+        <v>1.595773561030726</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.63858929910749</v>
@@ -56519,7 +56255,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.588610702392213</v>
+        <v>1.584005922012051</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.584843437883065</v>
@@ -56608,7 +56344,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.588565238290347</v>
+        <v>1.586472955735196</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.569053193802422</v>
@@ -56697,7 +56433,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.584672704709522</v>
+        <v>1.582197332023059</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.690013905321507</v>
@@ -56786,7 +56522,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.564723722135782</v>
+        <v>1.566026340941336</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.388492290625729</v>
@@ -56875,7 +56611,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.555488250336939</v>
+        <v>1.558592247229446</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.456425748760101</v>
@@ -56964,7 +56700,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.556390843020389</v>
+        <v>1.55661272246237</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.328796496598327</v>
@@ -57053,7 +56789,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.543433789123525</v>
+        <v>1.542299066003836</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.337360357729446</v>
@@ -57142,7 +56878,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.592449319057677</v>
+        <v>1.582111301679793</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.259332226967483</v>
@@ -57231,7 +56967,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.592263506528491</v>
+        <v>1.581436212409912</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.315543138232513</v>
@@ -57320,7 +57056,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.603908460392494</v>
+        <v>1.59209312285677</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.354502166641979</v>
@@ -57409,7 +57145,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.62778318590528</v>
+        <v>1.609187266492314</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.324088083319493</v>
@@ -57498,7 +57234,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.659976923456595</v>
+        <v>1.634787375389054</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.368027721276688</v>
@@ -57587,7 +57323,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.641721812367437</v>
+        <v>1.625035773955376</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.372330492211683</v>
@@ -57676,7 +57412,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.639748160883185</v>
+        <v>1.622531085175047</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.318796654248876</v>
@@ -57765,7 +57501,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.632254064819524</v>
+        <v>1.616961326799579</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.270361560046991</v>
@@ -57854,7 +57590,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.642018469176097</v>
+        <v>1.624591085506683</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.322880803558841</v>
@@ -57943,7 +57679,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.621625644602462</v>
+        <v>1.606889542000074</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.331678923863579</v>
@@ -58032,7 +57768,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.621419776800956</v>
+        <v>1.605766777994147</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.261319376683767</v>
@@ -58121,7 +57857,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.665108207413912</v>
+        <v>1.640535039441699</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.589687296705405</v>
@@ -58210,7 +57946,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.651134956939882</v>
+        <v>1.625568651051879</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.501868500055338</v>
@@ -58299,7 +58035,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.650534370826557</v>
+        <v>1.625071012953463</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.532617852860033</v>
@@ -58388,7 +58124,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.674649556274262</v>
+        <v>1.638789275993158</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.799551676325244</v>
@@ -58477,7 +58213,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.65632297155481</v>
+        <v>1.634060966778454</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.743297027060934</v>
@@ -58566,7 +58302,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.656138376348929</v>
+        <v>1.633693848866875</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.580954496682405</v>
@@ -58655,7 +58391,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.646665165097883</v>
+        <v>1.625878049092738</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.545008565127499</v>
@@ -58744,7 +58480,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.624780928441907</v>
+        <v>1.609471393463044</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.736681708878091</v>
@@ -58833,7 +58569,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.612529089937939</v>
+        <v>1.595550025573889</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.514300931120517</v>
@@ -58922,7 +58658,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.626641955345132</v>
+        <v>1.600839739978977</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.934896650246249</v>
